--- a/carculator_truck/data/HEM_factors_trucks.xlsx
+++ b/carculator_truck/data/HEM_factors_trucks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$577</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$793</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="28">
   <si>
     <t>powertrain</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H793"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="H511" sqref="H511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13621,7 +13621,7 @@
         <v>9</v>
       </c>
       <c r="B506">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C506" t="s">
         <v>22</v>
@@ -13630,16 +13630,16 @@
         <v>10</v>
       </c>
       <c r="E506">
-        <v>1.5533533392961551E-2</v>
+        <v>2.352054585991023E-2</v>
       </c>
       <c r="F506">
-        <v>4.7641960802998094E-3</v>
+        <v>5.6046746473861859E-3</v>
       </c>
       <c r="G506">
-        <v>-8.7870551642898825E-5</v>
+        <v>-1.050423821947365E-4</v>
       </c>
       <c r="H506">
-        <v>5.8828237900351558E-7</v>
+        <v>7.1069244385092659E-7</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -13647,7 +13647,7 @@
         <v>9</v>
       </c>
       <c r="B507">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C507" t="s">
         <v>22</v>
@@ -13656,16 +13656,16 @@
         <v>11</v>
       </c>
       <c r="E507">
-        <v>3.1984423382209998E-2</v>
+        <v>4.9850325571755311E-2</v>
       </c>
       <c r="F507">
-        <v>1.1843247026737421E-2</v>
+        <v>1.1878700692850011E-2</v>
       </c>
       <c r="G507">
-        <v>-2.1666345135340189E-4</v>
+        <v>-2.2262965221785011E-4</v>
       </c>
       <c r="H507">
-        <v>1.4418420544775959E-6</v>
+        <v>1.506260728665583E-6</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -13673,7 +13673,7 @@
         <v>9</v>
       </c>
       <c r="B508">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C508" t="s">
         <v>22</v>
@@ -13682,16 +13682,16 @@
         <v>12</v>
       </c>
       <c r="E508">
-        <v>6.0636499765500763E-2</v>
+        <v>9.065636084991148E-2</v>
       </c>
       <c r="F508">
-        <v>1.6939285003320221E-2</v>
+        <v>2.160232984909357E-2</v>
       </c>
       <c r="G508">
-        <v>-3.1387251689940401E-4</v>
+        <v>-4.0486914916847572E-4</v>
       </c>
       <c r="H508">
-        <v>2.1084251589583839E-6</v>
+        <v>2.7392508221105682E-6</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>9</v>
       </c>
       <c r="B509">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C509" t="s">
         <v>22</v>
@@ -13708,16 +13708,16 @@
         <v>13</v>
       </c>
       <c r="E509">
-        <v>2.4710974516993159E-4</v>
+        <v>3.889678981036638E-4</v>
       </c>
       <c r="F509">
-        <v>9.6979138640626385E-5</v>
+        <v>9.2686353624654041E-5</v>
       </c>
       <c r="G509">
-        <v>-1.7702063220680659E-6</v>
+        <v>-1.737120337905387E-6</v>
       </c>
       <c r="H509">
-        <v>1.1760732063265199E-8</v>
+        <v>1.17529542411142E-8</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -13725,7 +13725,7 @@
         <v>9</v>
       </c>
       <c r="B510">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C510" t="s">
         <v>22</v>
@@ -13734,16 +13734,16 @@
         <v>14</v>
       </c>
       <c r="E510">
-        <v>1.5159124941381051E-2</v>
+        <v>2.2664090212486811E-2</v>
       </c>
       <c r="F510">
-        <v>4.234821250829684E-3</v>
+        <v>5.4005824622728356E-3</v>
       </c>
       <c r="G510">
-        <v>-7.8468129224843779E-5</v>
+        <v>-1.012172872921082E-4</v>
       </c>
       <c r="H510">
-        <v>5.2710628973955182E-7</v>
+        <v>6.8481270552757682E-7</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -13751,7 +13751,7 @@
         <v>9</v>
       </c>
       <c r="B511">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C511" t="s">
         <v>22</v>
@@ -13760,16 +13760,16 @@
         <v>15</v>
       </c>
       <c r="E511">
-        <v>1.429084836516707E-2</v>
+        <v>2.1638890820029479E-2</v>
       </c>
       <c r="F511">
-        <v>4.3830605510222394E-3</v>
+        <v>5.1563014092822594E-3</v>
       </c>
       <c r="G511">
-        <v>-8.0840908847901592E-5</v>
+        <v>-9.6639003259734124E-5</v>
       </c>
       <c r="H511">
-        <v>5.4121979251269063E-7</v>
+        <v>6.5383710881215968E-7</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>9</v>
       </c>
       <c r="B512">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C512" t="s">
         <v>22</v>
@@ -13786,16 +13786,16 @@
         <v>16</v>
       </c>
       <c r="E512">
-        <v>1.2426824778041621E-3</v>
+        <v>1.881643598390283E-3</v>
       </c>
       <c r="F512">
-        <v>3.8113566907866579E-4</v>
+        <v>4.4837393483723308E-4</v>
       </c>
       <c r="G512">
-        <v>-7.0296436426458314E-6</v>
+        <v>-8.4033895521830414E-6</v>
       </c>
       <c r="H512">
-        <v>4.7062587256281081E-8</v>
+        <v>5.6855388604608101E-8</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -13803,7 +13803,7 @@
         <v>9</v>
       </c>
       <c r="B513">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C513" t="s">
         <v>22</v>
@@ -13829,7 +13829,7 @@
         <v>9</v>
       </c>
       <c r="B514">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C514" t="s">
         <v>22</v>
@@ -13855,7 +13855,7 @@
         <v>9</v>
       </c>
       <c r="B515">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C515" t="s">
         <v>22</v>
@@ -13881,7 +13881,7 @@
         <v>9</v>
       </c>
       <c r="B516">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C516" t="s">
         <v>22</v>
@@ -13907,7 +13907,7 @@
         <v>9</v>
       </c>
       <c r="B517">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C517" t="s">
         <v>22</v>
@@ -13933,25 +13933,25 @@
         <v>9</v>
       </c>
       <c r="B518">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C518" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D518" t="s">
         <v>10</v>
       </c>
       <c r="E518">
-        <v>-9.6597786814763224E-3</v>
+        <v>2.352054585991023E-2</v>
       </c>
       <c r="F518">
-        <v>7.7635651300955403E-3</v>
+        <v>5.6046746473861859E-3</v>
       </c>
       <c r="G518">
-        <v>-1.4834319628732561E-4</v>
+        <v>-1.050423821947365E-4</v>
       </c>
       <c r="H518">
-        <v>9.5200852693986909E-7</v>
+        <v>7.1069244385092659E-7</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -13959,25 +13959,25 @@
         <v>9</v>
       </c>
       <c r="B519">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D519" t="s">
         <v>11</v>
       </c>
       <c r="E519">
-        <v>-3.076252040491936E-2</v>
+        <v>4.9850325571755311E-2</v>
       </c>
       <c r="F519">
-        <v>1.9266183370504369E-2</v>
+        <v>1.1878700692850011E-2</v>
       </c>
       <c r="G519">
-        <v>-3.6667560411172501E-4</v>
+        <v>-2.2262965221785011E-4</v>
       </c>
       <c r="H519">
-        <v>2.3459642979485058E-6</v>
+        <v>1.506260728665583E-6</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -13985,25 +13985,25 @@
         <v>9</v>
       </c>
       <c r="B520">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C520" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D520" t="s">
         <v>12</v>
       </c>
       <c r="E520">
-        <v>-2.8842224996706769E-2</v>
+        <v>9.065636084991148E-2</v>
       </c>
       <c r="F520">
-        <v>2.763070775850332E-2</v>
+        <v>2.160232984909357E-2</v>
       </c>
       <c r="G520">
-        <v>-5.291433740807496E-4</v>
+        <v>-4.0486914916847572E-4</v>
       </c>
       <c r="H520">
-        <v>3.4017189039573802E-6</v>
+        <v>2.7392508221105682E-6</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -14011,25 +14011,25 @@
         <v>9</v>
       </c>
       <c r="B521">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C521" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D521" t="s">
         <v>13</v>
       </c>
       <c r="E521">
-        <v>-2.6696250840397759E-4</v>
+        <v>3.889678981036638E-4</v>
       </c>
       <c r="F521">
-        <v>1.5768821571462941E-4</v>
+        <v>9.2686353624654041E-5</v>
       </c>
       <c r="G521">
-        <v>-2.9978825337019139E-6</v>
+        <v>-1.737120337905387E-6</v>
       </c>
       <c r="H521">
-        <v>1.9164043386950391E-8</v>
+        <v>1.17529542411142E-8</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -14037,25 +14037,25 @@
         <v>9</v>
       </c>
       <c r="B522">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D522" t="s">
         <v>14</v>
       </c>
       <c r="E522">
-        <v>-7.2105562491751743E-3</v>
+        <v>2.2664090212486811E-2</v>
       </c>
       <c r="F522">
-        <v>6.9076769396257086E-3</v>
+        <v>5.4005824622728356E-3</v>
       </c>
       <c r="G522">
-        <v>-1.322858435201848E-4</v>
+        <v>-1.012172872921082E-4</v>
       </c>
       <c r="H522">
-        <v>8.5042972598932864E-7</v>
+        <v>6.8481270552757682E-7</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -14063,25 +14063,25 @@
         <v>9</v>
       </c>
       <c r="B523">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C523" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D523" t="s">
         <v>15</v>
       </c>
       <c r="E523">
-        <v>-8.8870476231756954E-3</v>
+        <v>2.1638890820029479E-2</v>
       </c>
       <c r="F523">
-        <v>7.1424830377314992E-3</v>
+        <v>5.1563014092822594E-3</v>
       </c>
       <c r="G523">
-        <v>-1.364757992913229E-4</v>
+        <v>-9.6639003259734124E-5</v>
       </c>
       <c r="H523">
-        <v>8.7584819506184343E-7</v>
+        <v>6.5383710881215968E-7</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -14089,25 +14089,25 @@
         <v>9</v>
       </c>
       <c r="B524">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C524" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D524" t="s">
         <v>16</v>
       </c>
       <c r="E524">
-        <v>-7.7278179771760828E-4</v>
+        <v>1.881643598390283E-3</v>
       </c>
       <c r="F524">
-        <v>6.2108516843870012E-4</v>
+        <v>4.4837393483723308E-4</v>
       </c>
       <c r="G524">
-        <v>-1.1867454814423729E-5</v>
+        <v>-8.4033895521830414E-6</v>
       </c>
       <c r="H524">
-        <v>7.6160675918353269E-8</v>
+        <v>5.6855388604608101E-8</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -14115,10 +14115,10 @@
         <v>9</v>
       </c>
       <c r="B525">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C525" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D525" t="s">
         <v>17</v>
@@ -14141,10 +14141,10 @@
         <v>9</v>
       </c>
       <c r="B526">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C526" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D526" t="s">
         <v>18</v>
@@ -14167,10 +14167,10 @@
         <v>9</v>
       </c>
       <c r="B527">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C527" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D527" t="s">
         <v>19</v>
@@ -14193,10 +14193,10 @@
         <v>9</v>
       </c>
       <c r="B528">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C528" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D528" t="s">
         <v>20</v>
@@ -14219,10 +14219,10 @@
         <v>9</v>
       </c>
       <c r="B529">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C529" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D529" t="s">
         <v>21</v>
@@ -14248,22 +14248,22 @@
         <v>6</v>
       </c>
       <c r="C530" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D530" t="s">
         <v>10</v>
       </c>
       <c r="E530">
-        <v>1.0040043331538399E-2</v>
+        <v>-1.089488807503342E-3</v>
       </c>
       <c r="F530">
-        <v>1.012852082963632E-2</v>
+        <v>3.1256813059438362E-3</v>
       </c>
       <c r="G530">
-        <v>-2.0585457158706609E-4</v>
+        <v>-5.4374599821084117E-5</v>
       </c>
       <c r="H530">
-        <v>1.3052149656498019E-6</v>
+        <v>3.4869069674635219E-7</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -14274,22 +14274,22 @@
         <v>6</v>
       </c>
       <c r="C531" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D531" t="s">
         <v>11</v>
       </c>
       <c r="E531">
-        <v>7.329010170415538E-3</v>
+        <v>-4.1114247491963489E-3</v>
       </c>
       <c r="F531">
-        <v>2.5684586594004119E-2</v>
+        <v>1.179615032546448E-2</v>
       </c>
       <c r="G531">
-        <v>-5.2010439253662025E-4</v>
+        <v>-2.052067228579085E-4</v>
       </c>
       <c r="H531">
-        <v>3.290705429490603E-6</v>
+        <v>1.3159393992251751E-6</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -14300,22 +14300,22 @@
         <v>6</v>
       </c>
       <c r="C532" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D532" t="s">
         <v>12</v>
       </c>
       <c r="E532">
-        <v>5.0072671215818501E-2</v>
+        <v>-2.729402471607753E-3</v>
       </c>
       <c r="F532">
-        <v>3.5599595729063828E-2</v>
+        <v>7.8307142113557583E-3</v>
       </c>
       <c r="G532">
-        <v>-7.2509688760141115E-4</v>
+        <v>-1.362237177709822E-4</v>
       </c>
       <c r="H532">
-        <v>4.6031647223224747E-6</v>
+        <v>8.7356864420151259E-7</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -14326,22 +14326,22 @@
         <v>6</v>
       </c>
       <c r="C533" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D533" t="s">
         <v>13</v>
       </c>
       <c r="E533">
-        <v>2.0674953477017428E-5</v>
+        <v>-3.6799856394950002E-5</v>
       </c>
       <c r="F533">
-        <v>2.1144920393481809E-4</v>
+        <v>1.055773842525686E-4</v>
       </c>
       <c r="G533">
-        <v>-4.2775865508430502E-6</v>
+        <v>-1.836632493693094E-6</v>
       </c>
       <c r="H533">
-        <v>2.7048959754658952E-8</v>
+        <v>1.1777864590022041E-8</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -14352,22 +14352,22 @@
         <v>6</v>
       </c>
       <c r="C534" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D534" t="s">
         <v>14</v>
       </c>
       <c r="E534">
-        <v>1.2518167803954511E-2</v>
+        <v>-6.8235061790143615E-4</v>
       </c>
       <c r="F534">
-        <v>8.89989893226595E-3</v>
+        <v>1.957678552838904E-3</v>
       </c>
       <c r="G534">
-        <v>-1.8127422190035241E-4</v>
+        <v>-3.4055929442744711E-5</v>
       </c>
       <c r="H534">
-        <v>1.1507911805806151E-6</v>
+        <v>2.183921610503723E-7</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -14378,22 +14378,22 @@
         <v>6</v>
       </c>
       <c r="C535" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D535" t="s">
         <v>15</v>
       </c>
       <c r="E535">
-        <v>9.2368832329332365E-3</v>
+        <v>-1.002314034861472E-3</v>
       </c>
       <c r="F535">
-        <v>9.3182364520671621E-3</v>
+        <v>2.8756258058657532E-3</v>
       </c>
       <c r="G535">
-        <v>-1.893861536058537E-4</v>
+        <v>-5.002461257021441E-5</v>
       </c>
       <c r="H535">
-        <v>1.200797466172484E-6</v>
+        <v>3.2079533159778981E-7</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -14404,22 +14404,22 @@
         <v>6</v>
       </c>
       <c r="C536" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D536" t="s">
         <v>16</v>
       </c>
       <c r="E536">
-        <v>8.032015477481085E-4</v>
+        <v>-8.7159544392782817E-5</v>
       </c>
       <c r="F536">
-        <v>8.1028178483996444E-4</v>
+        <v>2.5005452632682629E-4</v>
       </c>
       <c r="G536">
-        <v>-1.6468368537771618E-5</v>
+        <v>-4.349968565708466E-6</v>
       </c>
       <c r="H536">
-        <v>1.044172176363912E-7</v>
+        <v>2.7895260352000231E-8</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -14430,7 +14430,7 @@
         <v>6</v>
       </c>
       <c r="C537" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D537" t="s">
         <v>17</v>
@@ -14456,7 +14456,7 @@
         <v>6</v>
       </c>
       <c r="C538" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D538" t="s">
         <v>18</v>
@@ -14482,7 +14482,7 @@
         <v>6</v>
       </c>
       <c r="C539" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D539" t="s">
         <v>19</v>
@@ -14508,7 +14508,7 @@
         <v>6</v>
       </c>
       <c r="C540" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D540" t="s">
         <v>20</v>
@@ -14534,7 +14534,7 @@
         <v>6</v>
       </c>
       <c r="C541" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D541" t="s">
         <v>21</v>
@@ -14557,25 +14557,25 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C542" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D542" t="s">
         <v>10</v>
       </c>
       <c r="E542">
-        <v>1.0040043331538399E-2</v>
+        <v>-4.2469002027866491E-3</v>
       </c>
       <c r="F542">
-        <v>1.012852082963632E-2</v>
+        <v>9.0333993698321936E-3</v>
       </c>
       <c r="G542">
-        <v>-2.0585457158706609E-4</v>
+        <v>-1.738384709139651E-4</v>
       </c>
       <c r="H542">
-        <v>1.3052149656498019E-6</v>
+        <v>1.1223832969903509E-6</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
@@ -14583,25 +14583,25 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C543" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D543" t="s">
         <v>11</v>
       </c>
       <c r="E543">
-        <v>7.329010170415538E-3</v>
+        <v>-9.0008601064582895E-3</v>
       </c>
       <c r="F543">
-        <v>2.5684586594004119E-2</v>
+        <v>1.9145645641693389E-2</v>
       </c>
       <c r="G543">
-        <v>-5.2010439253662025E-4</v>
+        <v>-3.6843824140962749E-4</v>
       </c>
       <c r="H543">
-        <v>3.290705429490603E-6</v>
+        <v>2.3788114671763749E-6</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -14609,25 +14609,25 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C544" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D544" t="s">
         <v>12</v>
       </c>
       <c r="E544">
-        <v>5.0072671215818501E-2</v>
+        <v>-1.6368869771306149E-2</v>
       </c>
       <c r="F544">
-        <v>3.5599595729063828E-2</v>
+        <v>3.4817810805509337E-2</v>
       </c>
       <c r="G544">
-        <v>-7.2509688760141115E-4</v>
+        <v>-6.7003291906296244E-4</v>
       </c>
       <c r="H544">
-        <v>4.6031647223224747E-6</v>
+        <v>4.3260491620194131E-6</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
@@ -14635,25 +14635,25 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C545" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D545" t="s">
         <v>13</v>
       </c>
       <c r="E545">
-        <v>2.0674953477017428E-5</v>
+        <v>-7.0232952854794864E-5</v>
       </c>
       <c r="F545">
-        <v>2.1144920393481809E-4</v>
+        <v>1.4938841335473149E-4</v>
       </c>
       <c r="G545">
-        <v>-4.2775865508430502E-6</v>
+        <v>-2.8748262005501459E-6</v>
       </c>
       <c r="H545">
-        <v>2.7048959754658952E-8</v>
+        <v>1.856123581541441E-8</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -14661,25 +14661,25 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D546" t="s">
         <v>14</v>
       </c>
       <c r="E546">
-        <v>1.2518167803954511E-2</v>
+        <v>-4.0922174428238587E-3</v>
       </c>
       <c r="F546">
-        <v>8.89989893226595E-3</v>
+        <v>8.7044527013771383E-3</v>
       </c>
       <c r="G546">
-        <v>-1.8127422190035241E-4</v>
+        <v>-1.6750822976573641E-4</v>
       </c>
       <c r="H546">
-        <v>1.1507911805806151E-6</v>
+        <v>1.081512290504827E-6</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -14687,25 +14687,25 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C547" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D547" t="s">
         <v>15</v>
       </c>
       <c r="E547">
-        <v>9.2368832329332365E-3</v>
+        <v>-3.9072312356624303E-3</v>
       </c>
       <c r="F547">
-        <v>9.3182364520671621E-3</v>
+        <v>8.3107325056972683E-3</v>
       </c>
       <c r="G547">
-        <v>-1.893861536058537E-4</v>
+        <v>-1.5993149044383819E-4</v>
       </c>
       <c r="H547">
-        <v>1.200797466172484E-6</v>
+        <v>1.0325932205086821E-6</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
@@ -14713,25 +14713,25 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C548" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D548" t="s">
         <v>16</v>
       </c>
       <c r="E548">
-        <v>8.032015477481085E-4</v>
+        <v>-3.3975212691370971E-4</v>
       </c>
       <c r="F548">
-        <v>8.1028178483996444E-4</v>
+        <v>7.2267193378444054E-4</v>
       </c>
       <c r="G548">
-        <v>-1.6468368537771618E-5</v>
+        <v>-1.390707708231807E-5</v>
       </c>
       <c r="H548">
-        <v>1.044172176363912E-7</v>
+        <v>8.9790658127177487E-8</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
@@ -14739,10 +14739,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C549" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D549" t="s">
         <v>17</v>
@@ -14765,10 +14765,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C550" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D550" t="s">
         <v>18</v>
@@ -14791,10 +14791,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C551" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D551" t="s">
         <v>19</v>
@@ -14817,10 +14817,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C552" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D552" t="s">
         <v>20</v>
@@ -14843,10 +14843,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C553" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D553" t="s">
         <v>21</v>
@@ -14869,25 +14869,25 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C554" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D554" t="s">
         <v>10</v>
       </c>
       <c r="E554">
-        <v>-0.1505972178245413</v>
+        <v>-4.2469002027866491E-3</v>
       </c>
       <c r="F554">
-        <v>2.6977793233956771E-2</v>
+        <v>9.0333993698321936E-3</v>
       </c>
       <c r="G554">
-        <v>-5.4225627436843473E-4</v>
+        <v>-1.738384709139651E-4</v>
       </c>
       <c r="H554">
-        <v>3.316449548934231E-6</v>
+        <v>1.1223832969903509E-6</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
@@ -14895,25 +14895,25 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C555" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D555" t="s">
         <v>11</v>
       </c>
       <c r="E555">
-        <v>-0.40641212172688418</v>
+        <v>-9.0008601064582895E-3</v>
       </c>
       <c r="F555">
-        <v>6.8011215952847995E-2</v>
+        <v>1.9145645641693389E-2</v>
       </c>
       <c r="G555">
-        <v>-1.3617725427830019E-3</v>
+        <v>-3.6843824140962749E-4</v>
       </c>
       <c r="H555">
-        <v>8.3103158104311256E-6</v>
+        <v>2.3788114671763749E-6</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
@@ -14921,25 +14921,25 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C556" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D556" t="s">
         <v>12</v>
       </c>
       <c r="E556">
-        <v>-0.50932685375625908</v>
+        <v>-1.6368869771306149E-2</v>
       </c>
       <c r="F556">
-        <v>9.5148161824128247E-2</v>
+        <v>3.4817810805509337E-2</v>
       </c>
       <c r="G556">
-        <v>-1.916775860930722E-3</v>
+        <v>-6.7003291906296244E-4</v>
       </c>
       <c r="H556">
-        <v>1.173796743095997E-5</v>
+        <v>4.3260491620194131E-6</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
@@ -14947,25 +14947,25 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C557" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D557" t="s">
         <v>13</v>
       </c>
       <c r="E557">
-        <v>-3.399427929753329E-3</v>
+        <v>-7.0232952854794864E-5</v>
       </c>
       <c r="F557">
-        <v>5.5902735141973915E-4</v>
+        <v>1.4938841335473149E-4</v>
       </c>
       <c r="G557">
-        <v>-1.118170021556617E-5</v>
+        <v>-2.8748262005501459E-6</v>
       </c>
       <c r="H557">
-        <v>6.8196692029294614E-8</v>
+        <v>1.856123581541441E-8</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
@@ -14973,25 +14973,25 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C558" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D558" t="s">
         <v>14</v>
       </c>
       <c r="E558">
-        <v>-0.12733171343906441</v>
+        <v>-4.0922174428238587E-3</v>
       </c>
       <c r="F558">
-        <v>2.378704045603203E-2</v>
+        <v>8.7044527013771383E-3</v>
       </c>
       <c r="G558">
-        <v>-4.791939652326792E-4</v>
+        <v>-1.6750822976573641E-4</v>
       </c>
       <c r="H558">
-        <v>2.9344918577399811E-6</v>
+        <v>1.081512290504827E-6</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
@@ -14999,25 +14999,25 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C559" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D559" t="s">
         <v>15</v>
       </c>
       <c r="E559">
-        <v>-0.1385493628382683</v>
+        <v>-3.9072312356624303E-3</v>
       </c>
       <c r="F559">
-        <v>2.481956512791211E-2</v>
+        <v>8.3107325056972683E-3</v>
       </c>
       <c r="G559">
-        <v>-4.9887568611822015E-4</v>
+        <v>-1.5993149044383819E-4</v>
       </c>
       <c r="H559">
-        <v>3.0511330937401429E-6</v>
+        <v>1.0325932205086821E-6</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
@@ -15025,25 +15025,25 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C560" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D560" t="s">
         <v>16</v>
       </c>
       <c r="E560">
-        <v>-1.2047773071257799E-2</v>
+        <v>-3.3975212691370971E-4</v>
       </c>
       <c r="F560">
-        <v>2.1582232057676849E-3</v>
+        <v>7.2267193378444054E-4</v>
       </c>
       <c r="G560">
-        <v>-4.3380497730740129E-5</v>
+        <v>-1.390707708231807E-5</v>
       </c>
       <c r="H560">
-        <v>2.6531594160100279E-7</v>
+        <v>8.9790658127177487E-8</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -15051,10 +15051,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C561" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D561" t="s">
         <v>17</v>
@@ -15077,10 +15077,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C562" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D562" t="s">
         <v>18</v>
@@ -15103,10 +15103,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C563" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D563" t="s">
         <v>19</v>
@@ -15129,10 +15129,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C564" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D564" t="s">
         <v>20</v>
@@ -15155,10 +15155,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C565" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D565" t="s">
         <v>21</v>
@@ -15184,22 +15184,22 @@
         <v>6</v>
       </c>
       <c r="C566" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D566" t="s">
         <v>10</v>
       </c>
       <c r="E566">
-        <v>-0.1505972178245413</v>
+        <v>-1.952625682032116E-2</v>
       </c>
       <c r="F566">
-        <v>2.6977793233956771E-2</v>
+        <v>5.1581738863152133E-3</v>
       </c>
       <c r="G566">
-        <v>-5.4225627436843473E-4</v>
+        <v>-9.6006365359066665E-5</v>
       </c>
       <c r="H566">
-        <v>3.316449548934231E-6</v>
+        <v>6.0284912715991472E-7</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -15210,22 +15210,22 @@
         <v>6</v>
       </c>
       <c r="C567" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D567" t="s">
         <v>11</v>
       </c>
       <c r="E567">
-        <v>-0.40641212172688418</v>
+        <v>-7.3691082839991234E-2</v>
       </c>
       <c r="F567">
-        <v>6.8011215952847995E-2</v>
+        <v>1.9466690189611249E-2</v>
       </c>
       <c r="G567">
-        <v>-1.3617725427830019E-3</v>
+        <v>-3.623232239176558E-4</v>
       </c>
       <c r="H567">
-        <v>8.3103158104311256E-6</v>
+        <v>2.2751225383136371E-6</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
@@ -15236,22 +15236,22 @@
         <v>6</v>
       </c>
       <c r="C568" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D568" t="s">
         <v>12</v>
       </c>
       <c r="E568">
-        <v>-0.50932685375625908</v>
+        <v>-4.891873458467088E-2</v>
       </c>
       <c r="F568">
-        <v>9.5148161824128247E-2</v>
+        <v>1.292268450664283E-2</v>
       </c>
       <c r="G568">
-        <v>-1.916775860930722E-3</v>
+        <v>-2.4052309901129759E-4</v>
       </c>
       <c r="H568">
-        <v>1.173796743095997E-5</v>
+        <v>1.5103076189951651E-6</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
@@ -15262,22 +15262,22 @@
         <v>6</v>
       </c>
       <c r="C569" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D569" t="s">
         <v>13</v>
       </c>
       <c r="E569">
-        <v>-3.399427929753329E-3</v>
+        <v>-6.5954543508456049E-4</v>
       </c>
       <c r="F569">
-        <v>5.5902735141973915E-4</v>
+        <v>1.7422966460497929E-4</v>
       </c>
       <c r="G569">
-        <v>-1.118170021556617E-5</v>
+        <v>-3.2428446909023228E-6</v>
       </c>
       <c r="H569">
-        <v>6.8196692029294614E-8</v>
+        <v>2.036267256026227E-8</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="C570" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D570" t="s">
         <v>14</v>
       </c>
       <c r="E570">
-        <v>-0.12733171343906441</v>
+        <v>-1.222968364616797E-2</v>
       </c>
       <c r="F570">
-        <v>2.378704045603203E-2</v>
+        <v>3.2306711266607072E-3</v>
       </c>
       <c r="G570">
-        <v>-4.791939652326792E-4</v>
+        <v>-6.0130774752824187E-5</v>
       </c>
       <c r="H570">
-        <v>2.9344918577399811E-6</v>
+        <v>3.7757690474878921E-7</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -15314,22 +15314,22 @@
         <v>6</v>
       </c>
       <c r="C571" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D571" t="s">
         <v>15</v>
       </c>
       <c r="E571">
-        <v>-0.1385493628382683</v>
+        <v>-1.796414383131124E-2</v>
       </c>
       <c r="F571">
-        <v>2.481956512791211E-2</v>
+        <v>4.7455191551759824E-3</v>
       </c>
       <c r="G571">
-        <v>-4.9887568611822015E-4</v>
+        <v>-8.8325837778735849E-5</v>
       </c>
       <c r="H571">
-        <v>3.0511330937401429E-6</v>
+        <v>5.5462107286726374E-7</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
@@ -15340,22 +15340,22 @@
         <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D572" t="s">
         <v>16</v>
       </c>
       <c r="E572">
-        <v>-1.2047773071257799E-2</v>
+        <v>-1.562098835247133E-3</v>
       </c>
       <c r="F572">
-        <v>2.1582232057676849E-3</v>
+        <v>4.1265381668859888E-4</v>
       </c>
       <c r="G572">
-        <v>-4.3380497730740129E-5</v>
+        <v>-7.6805077462245013E-6</v>
       </c>
       <c r="H572">
-        <v>2.6531594160100279E-7</v>
+        <v>4.8227922735557722E-8</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -15366,7 +15366,7 @@
         <v>6</v>
       </c>
       <c r="C573" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D573" t="s">
         <v>17</v>
@@ -15392,7 +15392,7 @@
         <v>6</v>
       </c>
       <c r="C574" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D574" t="s">
         <v>18</v>
@@ -15418,7 +15418,7 @@
         <v>6</v>
       </c>
       <c r="C575" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D575" t="s">
         <v>19</v>
@@ -15444,7 +15444,7 @@
         <v>6</v>
       </c>
       <c r="C576" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D576" t="s">
         <v>20</v>
@@ -15470,7 +15470,7 @@
         <v>6</v>
       </c>
       <c r="C577" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D577" t="s">
         <v>21</v>
@@ -15488,8 +15488,5624 @@
         <v>0</v>
       </c>
     </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>9</v>
+      </c>
+      <c r="B578">
+        <v>4</v>
+      </c>
+      <c r="C578" t="s">
+        <v>24</v>
+      </c>
+      <c r="D578" t="s">
+        <v>10</v>
+      </c>
+      <c r="E578">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F578">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G578">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H578">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>9</v>
+      </c>
+      <c r="B579">
+        <v>4</v>
+      </c>
+      <c r="C579" t="s">
+        <v>24</v>
+      </c>
+      <c r="D579" t="s">
+        <v>11</v>
+      </c>
+      <c r="E579">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F579">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G579">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H579">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>9</v>
+      </c>
+      <c r="B580">
+        <v>4</v>
+      </c>
+      <c r="C580" t="s">
+        <v>24</v>
+      </c>
+      <c r="D580" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F580">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G580">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H580">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>9</v>
+      </c>
+      <c r="B581">
+        <v>4</v>
+      </c>
+      <c r="C581" t="s">
+        <v>24</v>
+      </c>
+      <c r="D581" t="s">
+        <v>13</v>
+      </c>
+      <c r="E581">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F581">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G581">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H581">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>9</v>
+      </c>
+      <c r="B582">
+        <v>4</v>
+      </c>
+      <c r="C582" t="s">
+        <v>24</v>
+      </c>
+      <c r="D582" t="s">
+        <v>14</v>
+      </c>
+      <c r="E582">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F582">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G582">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H582">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>9</v>
+      </c>
+      <c r="B583">
+        <v>4</v>
+      </c>
+      <c r="C583" t="s">
+        <v>24</v>
+      </c>
+      <c r="D583" t="s">
+        <v>15</v>
+      </c>
+      <c r="E583">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F583">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G583">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H583">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>9</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
+      <c r="C584" t="s">
+        <v>24</v>
+      </c>
+      <c r="D584" t="s">
+        <v>16</v>
+      </c>
+      <c r="E584">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F584">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G584">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H584">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>9</v>
+      </c>
+      <c r="B585">
+        <v>4</v>
+      </c>
+      <c r="C585" t="s">
+        <v>24</v>
+      </c>
+      <c r="D585" t="s">
+        <v>17</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>0</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>9</v>
+      </c>
+      <c r="B586">
+        <v>4</v>
+      </c>
+      <c r="C586" t="s">
+        <v>24</v>
+      </c>
+      <c r="D586" t="s">
+        <v>18</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>9</v>
+      </c>
+      <c r="B587">
+        <v>4</v>
+      </c>
+      <c r="C587" t="s">
+        <v>24</v>
+      </c>
+      <c r="D587" t="s">
+        <v>19</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>0</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>9</v>
+      </c>
+      <c r="B588">
+        <v>4</v>
+      </c>
+      <c r="C588" t="s">
+        <v>24</v>
+      </c>
+      <c r="D588" t="s">
+        <v>20</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>9</v>
+      </c>
+      <c r="B589">
+        <v>4</v>
+      </c>
+      <c r="C589" t="s">
+        <v>24</v>
+      </c>
+      <c r="D589" t="s">
+        <v>21</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>9</v>
+      </c>
+      <c r="B590">
+        <v>5</v>
+      </c>
+      <c r="C590" t="s">
+        <v>24</v>
+      </c>
+      <c r="D590" t="s">
+        <v>10</v>
+      </c>
+      <c r="E590">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F590">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G590">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H590">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>9</v>
+      </c>
+      <c r="B591">
+        <v>5</v>
+      </c>
+      <c r="C591" t="s">
+        <v>24</v>
+      </c>
+      <c r="D591" t="s">
+        <v>11</v>
+      </c>
+      <c r="E591">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F591">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G591">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H591">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>9</v>
+      </c>
+      <c r="B592">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>24</v>
+      </c>
+      <c r="D592" t="s">
+        <v>12</v>
+      </c>
+      <c r="E592">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F592">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G592">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H592">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>9</v>
+      </c>
+      <c r="B593">
+        <v>5</v>
+      </c>
+      <c r="C593" t="s">
+        <v>24</v>
+      </c>
+      <c r="D593" t="s">
+        <v>13</v>
+      </c>
+      <c r="E593">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F593">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G593">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H593">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594">
+        <v>5</v>
+      </c>
+      <c r="C594" t="s">
+        <v>24</v>
+      </c>
+      <c r="D594" t="s">
+        <v>14</v>
+      </c>
+      <c r="E594">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F594">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G594">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H594">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595">
+        <v>5</v>
+      </c>
+      <c r="C595" t="s">
+        <v>24</v>
+      </c>
+      <c r="D595" t="s">
+        <v>15</v>
+      </c>
+      <c r="E595">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F595">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G595">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H595">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>9</v>
+      </c>
+      <c r="B596">
+        <v>5</v>
+      </c>
+      <c r="C596" t="s">
+        <v>24</v>
+      </c>
+      <c r="D596" t="s">
+        <v>16</v>
+      </c>
+      <c r="E596">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F596">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G596">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H596">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>9</v>
+      </c>
+      <c r="B597">
+        <v>5</v>
+      </c>
+      <c r="C597" t="s">
+        <v>24</v>
+      </c>
+      <c r="D597" t="s">
+        <v>17</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>0</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>9</v>
+      </c>
+      <c r="B598">
+        <v>5</v>
+      </c>
+      <c r="C598" t="s">
+        <v>24</v>
+      </c>
+      <c r="D598" t="s">
+        <v>18</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>9</v>
+      </c>
+      <c r="B599">
+        <v>5</v>
+      </c>
+      <c r="C599" t="s">
+        <v>24</v>
+      </c>
+      <c r="D599" t="s">
+        <v>19</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>0</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>9</v>
+      </c>
+      <c r="B600">
+        <v>5</v>
+      </c>
+      <c r="C600" t="s">
+        <v>24</v>
+      </c>
+      <c r="D600" t="s">
+        <v>20</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>9</v>
+      </c>
+      <c r="B601">
+        <v>5</v>
+      </c>
+      <c r="C601" t="s">
+        <v>24</v>
+      </c>
+      <c r="D601" t="s">
+        <v>21</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>0</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>9</v>
+      </c>
+      <c r="B602">
+        <v>6</v>
+      </c>
+      <c r="C602" t="s">
+        <v>24</v>
+      </c>
+      <c r="D602" t="s">
+        <v>10</v>
+      </c>
+      <c r="E602">
+        <v>-1.6252007114646159E-2</v>
+      </c>
+      <c r="F602">
+        <v>7.0565251971846689E-3</v>
+      </c>
+      <c r="G602">
+        <v>-1.4015131736399609E-4</v>
+      </c>
+      <c r="H602">
+        <v>8.7796057383255358E-7</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>9</v>
+      </c>
+      <c r="B603">
+        <v>6</v>
+      </c>
+      <c r="C603" t="s">
+        <v>24</v>
+      </c>
+      <c r="D603" t="s">
+        <v>11</v>
+      </c>
+      <c r="E603">
+        <v>-6.1334436617795772E-2</v>
+      </c>
+      <c r="F603">
+        <v>2.6630987188478641E-2</v>
+      </c>
+      <c r="G603">
+        <v>-5.2892433420957522E-4</v>
+      </c>
+      <c r="H603">
+        <v>3.3133809242398901E-6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>9</v>
+      </c>
+      <c r="B604">
+        <v>6</v>
+      </c>
+      <c r="C604" t="s">
+        <v>24</v>
+      </c>
+      <c r="D604" t="s">
+        <v>12</v>
+      </c>
+      <c r="E604">
+        <v>-4.0715976579970392E-2</v>
+      </c>
+      <c r="F604">
+        <v>1.767860307508818E-2</v>
+      </c>
+      <c r="G604">
+        <v>-3.5111891089981991E-4</v>
+      </c>
+      <c r="H604">
+        <v>2.1995408956796538E-6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>9</v>
+      </c>
+      <c r="B605">
+        <v>6</v>
+      </c>
+      <c r="C605" t="s">
+        <v>24</v>
+      </c>
+      <c r="D605" t="s">
+        <v>13</v>
+      </c>
+      <c r="E605">
+        <v>-5.4895081328317256E-4</v>
+      </c>
+      <c r="F605">
+        <v>2.3835111757908401E-4</v>
+      </c>
+      <c r="G605">
+        <v>-4.7339480584521752E-6</v>
+      </c>
+      <c r="H605">
+        <v>2.9655231815795901E-8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>9</v>
+      </c>
+      <c r="B606">
+        <v>6</v>
+      </c>
+      <c r="C606" t="s">
+        <v>24</v>
+      </c>
+      <c r="D606" t="s">
+        <v>14</v>
+      </c>
+      <c r="E606">
+        <v>-1.0178994144991529E-2</v>
+      </c>
+      <c r="F606">
+        <v>4.419650768771973E-3</v>
+      </c>
+      <c r="G606">
+        <v>-8.7779727724953473E-5</v>
+      </c>
+      <c r="H606">
+        <v>5.4988522391990403E-7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>9</v>
+      </c>
+      <c r="B607">
+        <v>6</v>
+      </c>
+      <c r="C607" t="s">
+        <v>24</v>
+      </c>
+      <c r="D607" t="s">
+        <v>15</v>
+      </c>
+      <c r="E607">
+        <v>-1.495185420952533E-2</v>
+      </c>
+      <c r="F607">
+        <v>6.4920036890946317E-3</v>
+      </c>
+      <c r="G607">
+        <v>-1.2893922110687311E-4</v>
+      </c>
+      <c r="H607">
+        <v>8.0772378638846467E-7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>9</v>
+      </c>
+      <c r="B608">
+        <v>6</v>
+      </c>
+      <c r="C608" t="s">
+        <v>24</v>
+      </c>
+      <c r="D608" t="s">
+        <v>16</v>
+      </c>
+      <c r="E608">
+        <v>-1.300160726430701E-3</v>
+      </c>
+      <c r="F608">
+        <v>5.6452198755881024E-4</v>
+      </c>
+      <c r="G608">
+        <v>-1.121210438142755E-5</v>
+      </c>
+      <c r="H608">
+        <v>7.0236837718271644E-8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>9</v>
+      </c>
+      <c r="B609">
+        <v>6</v>
+      </c>
+      <c r="C609" t="s">
+        <v>24</v>
+      </c>
+      <c r="D609" t="s">
+        <v>17</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>0</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>9</v>
+      </c>
+      <c r="B610">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s">
+        <v>24</v>
+      </c>
+      <c r="D610" t="s">
+        <v>18</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>0</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>9</v>
+      </c>
+      <c r="B611">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s">
+        <v>24</v>
+      </c>
+      <c r="D611" t="s">
+        <v>19</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>0</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>9</v>
+      </c>
+      <c r="B612">
+        <v>6</v>
+      </c>
+      <c r="C612" t="s">
+        <v>24</v>
+      </c>
+      <c r="D612" t="s">
+        <v>20</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>0</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>9</v>
+      </c>
+      <c r="B613">
+        <v>6</v>
+      </c>
+      <c r="C613" t="s">
+        <v>24</v>
+      </c>
+      <c r="D613" t="s">
+        <v>21</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>0</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>9</v>
+      </c>
+      <c r="B614">
+        <v>4</v>
+      </c>
+      <c r="C614" t="s">
+        <v>25</v>
+      </c>
+      <c r="D614" t="s">
+        <v>10</v>
+      </c>
+      <c r="E614">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F614">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G614">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H614">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>9</v>
+      </c>
+      <c r="B615">
+        <v>4</v>
+      </c>
+      <c r="C615" t="s">
+        <v>25</v>
+      </c>
+      <c r="D615" t="s">
+        <v>11</v>
+      </c>
+      <c r="E615">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F615">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G615">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H615">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>9</v>
+      </c>
+      <c r="B616">
+        <v>4</v>
+      </c>
+      <c r="C616" t="s">
+        <v>25</v>
+      </c>
+      <c r="D616" t="s">
+        <v>12</v>
+      </c>
+      <c r="E616">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F616">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G616">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H616">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>9</v>
+      </c>
+      <c r="B617">
+        <v>4</v>
+      </c>
+      <c r="C617" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617" t="s">
+        <v>13</v>
+      </c>
+      <c r="E617">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F617">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G617">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H617">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>9</v>
+      </c>
+      <c r="B618">
+        <v>4</v>
+      </c>
+      <c r="C618" t="s">
+        <v>25</v>
+      </c>
+      <c r="D618" t="s">
+        <v>14</v>
+      </c>
+      <c r="E618">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F618">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G618">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H618">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>9</v>
+      </c>
+      <c r="B619">
+        <v>4</v>
+      </c>
+      <c r="C619" t="s">
+        <v>25</v>
+      </c>
+      <c r="D619" t="s">
+        <v>15</v>
+      </c>
+      <c r="E619">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F619">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G619">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H619">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>9</v>
+      </c>
+      <c r="B620">
+        <v>4</v>
+      </c>
+      <c r="C620" t="s">
+        <v>25</v>
+      </c>
+      <c r="D620" t="s">
+        <v>16</v>
+      </c>
+      <c r="E620">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F620">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G620">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H620">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>9</v>
+      </c>
+      <c r="B621">
+        <v>4</v>
+      </c>
+      <c r="C621" t="s">
+        <v>25</v>
+      </c>
+      <c r="D621" t="s">
+        <v>17</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>0</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>9</v>
+      </c>
+      <c r="B622">
+        <v>4</v>
+      </c>
+      <c r="C622" t="s">
+        <v>25</v>
+      </c>
+      <c r="D622" t="s">
+        <v>18</v>
+      </c>
+      <c r="E622">
+        <v>0</v>
+      </c>
+      <c r="F622">
+        <v>0</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>9</v>
+      </c>
+      <c r="B623">
+        <v>4</v>
+      </c>
+      <c r="C623" t="s">
+        <v>25</v>
+      </c>
+      <c r="D623" t="s">
+        <v>19</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>9</v>
+      </c>
+      <c r="B624">
+        <v>4</v>
+      </c>
+      <c r="C624" t="s">
+        <v>25</v>
+      </c>
+      <c r="D624" t="s">
+        <v>20</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>9</v>
+      </c>
+      <c r="B625">
+        <v>4</v>
+      </c>
+      <c r="C625" t="s">
+        <v>25</v>
+      </c>
+      <c r="D625" t="s">
+        <v>21</v>
+      </c>
+      <c r="E625">
+        <v>0</v>
+      </c>
+      <c r="F625">
+        <v>0</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>9</v>
+      </c>
+      <c r="B626">
+        <v>5</v>
+      </c>
+      <c r="C626" t="s">
+        <v>25</v>
+      </c>
+      <c r="D626" t="s">
+        <v>10</v>
+      </c>
+      <c r="E626">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F626">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G626">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H626">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>9</v>
+      </c>
+      <c r="B627">
+        <v>5</v>
+      </c>
+      <c r="C627" t="s">
+        <v>25</v>
+      </c>
+      <c r="D627" t="s">
+        <v>11</v>
+      </c>
+      <c r="E627">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F627">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G627">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H627">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>9</v>
+      </c>
+      <c r="B628">
+        <v>5</v>
+      </c>
+      <c r="C628" t="s">
+        <v>25</v>
+      </c>
+      <c r="D628" t="s">
+        <v>12</v>
+      </c>
+      <c r="E628">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F628">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G628">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H628">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>9</v>
+      </c>
+      <c r="B629">
+        <v>5</v>
+      </c>
+      <c r="C629" t="s">
+        <v>25</v>
+      </c>
+      <c r="D629" t="s">
+        <v>13</v>
+      </c>
+      <c r="E629">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F629">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G629">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H629">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>9</v>
+      </c>
+      <c r="B630">
+        <v>5</v>
+      </c>
+      <c r="C630" t="s">
+        <v>25</v>
+      </c>
+      <c r="D630" t="s">
+        <v>14</v>
+      </c>
+      <c r="E630">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F630">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G630">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H630">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>9</v>
+      </c>
+      <c r="B631">
+        <v>5</v>
+      </c>
+      <c r="C631" t="s">
+        <v>25</v>
+      </c>
+      <c r="D631" t="s">
+        <v>15</v>
+      </c>
+      <c r="E631">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F631">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G631">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H631">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>9</v>
+      </c>
+      <c r="B632">
+        <v>5</v>
+      </c>
+      <c r="C632" t="s">
+        <v>25</v>
+      </c>
+      <c r="D632" t="s">
+        <v>16</v>
+      </c>
+      <c r="E632">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F632">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G632">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H632">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>9</v>
+      </c>
+      <c r="B633">
+        <v>5</v>
+      </c>
+      <c r="C633" t="s">
+        <v>25</v>
+      </c>
+      <c r="D633" t="s">
+        <v>17</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>9</v>
+      </c>
+      <c r="B634">
+        <v>5</v>
+      </c>
+      <c r="C634" t="s">
+        <v>25</v>
+      </c>
+      <c r="D634" t="s">
+        <v>18</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>0</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>9</v>
+      </c>
+      <c r="B635">
+        <v>5</v>
+      </c>
+      <c r="C635" t="s">
+        <v>25</v>
+      </c>
+      <c r="D635" t="s">
+        <v>19</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>0</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>9</v>
+      </c>
+      <c r="B636">
+        <v>5</v>
+      </c>
+      <c r="C636" t="s">
+        <v>25</v>
+      </c>
+      <c r="D636" t="s">
+        <v>20</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>0</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>9</v>
+      </c>
+      <c r="B637">
+        <v>5</v>
+      </c>
+      <c r="C637" t="s">
+        <v>25</v>
+      </c>
+      <c r="D637" t="s">
+        <v>21</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+      <c r="G637">
+        <v>0</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>9</v>
+      </c>
+      <c r="B638">
+        <v>6</v>
+      </c>
+      <c r="C638" t="s">
+        <v>25</v>
+      </c>
+      <c r="D638" t="s">
+        <v>10</v>
+      </c>
+      <c r="E638">
+        <v>-1.6252007114646159E-2</v>
+      </c>
+      <c r="F638">
+        <v>7.0565251971846689E-3</v>
+      </c>
+      <c r="G638">
+        <v>-1.4015131736399609E-4</v>
+      </c>
+      <c r="H638">
+        <v>8.7796057383255358E-7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>9</v>
+      </c>
+      <c r="B639">
+        <v>6</v>
+      </c>
+      <c r="C639" t="s">
+        <v>25</v>
+      </c>
+      <c r="D639" t="s">
+        <v>11</v>
+      </c>
+      <c r="E639">
+        <v>-6.1334436617795772E-2</v>
+      </c>
+      <c r="F639">
+        <v>2.6630987188478641E-2</v>
+      </c>
+      <c r="G639">
+        <v>-5.2892433420957522E-4</v>
+      </c>
+      <c r="H639">
+        <v>3.3133809242398901E-6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>9</v>
+      </c>
+      <c r="B640">
+        <v>6</v>
+      </c>
+      <c r="C640" t="s">
+        <v>25</v>
+      </c>
+      <c r="D640" t="s">
+        <v>12</v>
+      </c>
+      <c r="E640">
+        <v>-4.0715976579970392E-2</v>
+      </c>
+      <c r="F640">
+        <v>1.767860307508818E-2</v>
+      </c>
+      <c r="G640">
+        <v>-3.5111891089981991E-4</v>
+      </c>
+      <c r="H640">
+        <v>2.1995408956796538E-6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>9</v>
+      </c>
+      <c r="B641">
+        <v>6</v>
+      </c>
+      <c r="C641" t="s">
+        <v>25</v>
+      </c>
+      <c r="D641" t="s">
+        <v>13</v>
+      </c>
+      <c r="E641">
+        <v>-5.4895081328317256E-4</v>
+      </c>
+      <c r="F641">
+        <v>2.3835111757908401E-4</v>
+      </c>
+      <c r="G641">
+        <v>-4.7339480584521752E-6</v>
+      </c>
+      <c r="H641">
+        <v>2.9655231815795901E-8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>9</v>
+      </c>
+      <c r="B642">
+        <v>6</v>
+      </c>
+      <c r="C642" t="s">
+        <v>25</v>
+      </c>
+      <c r="D642" t="s">
+        <v>14</v>
+      </c>
+      <c r="E642">
+        <v>-1.0178994144991529E-2</v>
+      </c>
+      <c r="F642">
+        <v>4.419650768771973E-3</v>
+      </c>
+      <c r="G642">
+        <v>-8.7779727724953473E-5</v>
+      </c>
+      <c r="H642">
+        <v>5.4988522391990403E-7</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>9</v>
+      </c>
+      <c r="B643">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
+        <v>25</v>
+      </c>
+      <c r="D643" t="s">
+        <v>15</v>
+      </c>
+      <c r="E643">
+        <v>-1.495185420952533E-2</v>
+      </c>
+      <c r="F643">
+        <v>6.4920036890946317E-3</v>
+      </c>
+      <c r="G643">
+        <v>-1.2893922110687311E-4</v>
+      </c>
+      <c r="H643">
+        <v>8.0772378638846467E-7</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>9</v>
+      </c>
+      <c r="B644">
+        <v>6</v>
+      </c>
+      <c r="C644" t="s">
+        <v>25</v>
+      </c>
+      <c r="D644" t="s">
+        <v>16</v>
+      </c>
+      <c r="E644">
+        <v>-1.300160726430701E-3</v>
+      </c>
+      <c r="F644">
+        <v>5.6452198755881024E-4</v>
+      </c>
+      <c r="G644">
+        <v>-1.121210438142755E-5</v>
+      </c>
+      <c r="H644">
+        <v>7.0236837718271644E-8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>9</v>
+      </c>
+      <c r="B645">
+        <v>6</v>
+      </c>
+      <c r="C645" t="s">
+        <v>25</v>
+      </c>
+      <c r="D645" t="s">
+        <v>17</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="F645">
+        <v>0</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>9</v>
+      </c>
+      <c r="B646">
+        <v>6</v>
+      </c>
+      <c r="C646" t="s">
+        <v>25</v>
+      </c>
+      <c r="D646" t="s">
+        <v>18</v>
+      </c>
+      <c r="E646">
+        <v>0</v>
+      </c>
+      <c r="F646">
+        <v>0</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>9</v>
+      </c>
+      <c r="B647">
+        <v>6</v>
+      </c>
+      <c r="C647" t="s">
+        <v>25</v>
+      </c>
+      <c r="D647" t="s">
+        <v>19</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>9</v>
+      </c>
+      <c r="B648">
+        <v>6</v>
+      </c>
+      <c r="C648" t="s">
+        <v>25</v>
+      </c>
+      <c r="D648" t="s">
+        <v>20</v>
+      </c>
+      <c r="E648">
+        <v>0</v>
+      </c>
+      <c r="F648">
+        <v>0</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s">
+        <v>25</v>
+      </c>
+      <c r="D649" t="s">
+        <v>21</v>
+      </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
+      <c r="F649">
+        <v>0</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>9</v>
+      </c>
+      <c r="B650">
+        <v>4</v>
+      </c>
+      <c r="C650" t="s">
+        <v>26</v>
+      </c>
+      <c r="D650" t="s">
+        <v>10</v>
+      </c>
+      <c r="E650">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F650">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G650">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H650">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>9</v>
+      </c>
+      <c r="B651">
+        <v>4</v>
+      </c>
+      <c r="C651" t="s">
+        <v>26</v>
+      </c>
+      <c r="D651" t="s">
+        <v>11</v>
+      </c>
+      <c r="E651">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F651">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G651">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H651">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>9</v>
+      </c>
+      <c r="B652">
+        <v>4</v>
+      </c>
+      <c r="C652" t="s">
+        <v>26</v>
+      </c>
+      <c r="D652" t="s">
+        <v>12</v>
+      </c>
+      <c r="E652">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F652">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G652">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H652">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>9</v>
+      </c>
+      <c r="B653">
+        <v>4</v>
+      </c>
+      <c r="C653" t="s">
+        <v>26</v>
+      </c>
+      <c r="D653" t="s">
+        <v>13</v>
+      </c>
+      <c r="E653">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F653">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G653">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H653">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>9</v>
+      </c>
+      <c r="B654">
+        <v>4</v>
+      </c>
+      <c r="C654" t="s">
+        <v>26</v>
+      </c>
+      <c r="D654" t="s">
+        <v>14</v>
+      </c>
+      <c r="E654">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F654">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G654">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H654">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>9</v>
+      </c>
+      <c r="B655">
+        <v>4</v>
+      </c>
+      <c r="C655" t="s">
+        <v>26</v>
+      </c>
+      <c r="D655" t="s">
+        <v>15</v>
+      </c>
+      <c r="E655">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F655">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G655">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H655">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>9</v>
+      </c>
+      <c r="B656">
+        <v>4</v>
+      </c>
+      <c r="C656" t="s">
+        <v>26</v>
+      </c>
+      <c r="D656" t="s">
+        <v>16</v>
+      </c>
+      <c r="E656">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F656">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G656">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H656">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>9</v>
+      </c>
+      <c r="B657">
+        <v>4</v>
+      </c>
+      <c r="C657" t="s">
+        <v>26</v>
+      </c>
+      <c r="D657" t="s">
+        <v>17</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+      <c r="F657">
+        <v>0</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>9</v>
+      </c>
+      <c r="B658">
+        <v>4</v>
+      </c>
+      <c r="C658" t="s">
+        <v>26</v>
+      </c>
+      <c r="D658" t="s">
+        <v>18</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+      <c r="F658">
+        <v>0</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>9</v>
+      </c>
+      <c r="B659">
+        <v>4</v>
+      </c>
+      <c r="C659" t="s">
+        <v>26</v>
+      </c>
+      <c r="D659" t="s">
+        <v>19</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+      <c r="F659">
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>9</v>
+      </c>
+      <c r="B660">
+        <v>4</v>
+      </c>
+      <c r="C660" t="s">
+        <v>26</v>
+      </c>
+      <c r="D660" t="s">
+        <v>20</v>
+      </c>
+      <c r="E660">
+        <v>0</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>9</v>
+      </c>
+      <c r="B661">
+        <v>4</v>
+      </c>
+      <c r="C661" t="s">
+        <v>26</v>
+      </c>
+      <c r="D661" t="s">
+        <v>21</v>
+      </c>
+      <c r="E661">
+        <v>0</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>9</v>
+      </c>
+      <c r="B662">
+        <v>5</v>
+      </c>
+      <c r="C662" t="s">
+        <v>26</v>
+      </c>
+      <c r="D662" t="s">
+        <v>10</v>
+      </c>
+      <c r="E662">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F662">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G662">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H662">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>9</v>
+      </c>
+      <c r="B663">
+        <v>5</v>
+      </c>
+      <c r="C663" t="s">
+        <v>26</v>
+      </c>
+      <c r="D663" t="s">
+        <v>11</v>
+      </c>
+      <c r="E663">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F663">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G663">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H663">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>9</v>
+      </c>
+      <c r="B664">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>26</v>
+      </c>
+      <c r="D664" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F664">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G664">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H664">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>9</v>
+      </c>
+      <c r="B665">
+        <v>5</v>
+      </c>
+      <c r="C665" t="s">
+        <v>26</v>
+      </c>
+      <c r="D665" t="s">
+        <v>13</v>
+      </c>
+      <c r="E665">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F665">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G665">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H665">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>9</v>
+      </c>
+      <c r="B666">
+        <v>5</v>
+      </c>
+      <c r="C666" t="s">
+        <v>26</v>
+      </c>
+      <c r="D666" t="s">
+        <v>14</v>
+      </c>
+      <c r="E666">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F666">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G666">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H666">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>9</v>
+      </c>
+      <c r="B667">
+        <v>5</v>
+      </c>
+      <c r="C667" t="s">
+        <v>26</v>
+      </c>
+      <c r="D667" t="s">
+        <v>15</v>
+      </c>
+      <c r="E667">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F667">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G667">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H667">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668">
+        <v>5</v>
+      </c>
+      <c r="C668" t="s">
+        <v>26</v>
+      </c>
+      <c r="D668" t="s">
+        <v>16</v>
+      </c>
+      <c r="E668">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F668">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G668">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H668">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>9</v>
+      </c>
+      <c r="B669">
+        <v>5</v>
+      </c>
+      <c r="C669" t="s">
+        <v>26</v>
+      </c>
+      <c r="D669" t="s">
+        <v>17</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670">
+        <v>5</v>
+      </c>
+      <c r="C670" t="s">
+        <v>26</v>
+      </c>
+      <c r="D670" t="s">
+        <v>18</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>0</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>9</v>
+      </c>
+      <c r="B671">
+        <v>5</v>
+      </c>
+      <c r="C671" t="s">
+        <v>26</v>
+      </c>
+      <c r="D671" t="s">
+        <v>19</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671">
+        <v>0</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672">
+        <v>5</v>
+      </c>
+      <c r="C672" t="s">
+        <v>26</v>
+      </c>
+      <c r="D672" t="s">
+        <v>20</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672">
+        <v>0</v>
+      </c>
+      <c r="G672">
+        <v>0</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>9</v>
+      </c>
+      <c r="B673">
+        <v>5</v>
+      </c>
+      <c r="C673" t="s">
+        <v>26</v>
+      </c>
+      <c r="D673" t="s">
+        <v>21</v>
+      </c>
+      <c r="E673">
+        <v>0</v>
+      </c>
+      <c r="F673">
+        <v>0</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>9</v>
+      </c>
+      <c r="B674">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s">
+        <v>26</v>
+      </c>
+      <c r="D674" t="s">
+        <v>10</v>
+      </c>
+      <c r="E674">
+        <v>-0.1172569057503413</v>
+      </c>
+      <c r="F674">
+        <v>1.7064550778342642E-2</v>
+      </c>
+      <c r="G674">
+        <v>-3.358007931779243E-4</v>
+      </c>
+      <c r="H674">
+        <v>2.0283317355797798E-6</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>9</v>
+      </c>
+      <c r="B675">
+        <v>6</v>
+      </c>
+      <c r="C675" t="s">
+        <v>26</v>
+      </c>
+      <c r="D675" t="s">
+        <v>11</v>
+      </c>
+      <c r="E675">
+        <v>-0.44252186114991388</v>
+      </c>
+      <c r="F675">
+        <v>6.4400776674280652E-2</v>
+      </c>
+      <c r="G675">
+        <v>-1.2672957048539539E-3</v>
+      </c>
+      <c r="H675">
+        <v>7.6548244114928941E-6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>9</v>
+      </c>
+      <c r="B676">
+        <v>6</v>
+      </c>
+      <c r="C676" t="s">
+        <v>26</v>
+      </c>
+      <c r="D676" t="s">
+        <v>12</v>
+      </c>
+      <c r="E676">
+        <v>-0.29376197534772508</v>
+      </c>
+      <c r="F676">
+        <v>4.2751551528455591E-2</v>
+      </c>
+      <c r="G676">
+        <v>-8.4127645267759394E-4</v>
+      </c>
+      <c r="H676">
+        <v>5.0815475946237212E-6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>9</v>
+      </c>
+      <c r="B677">
+        <v>6</v>
+      </c>
+      <c r="C677" t="s">
+        <v>26</v>
+      </c>
+      <c r="D677" t="s">
+        <v>13</v>
+      </c>
+      <c r="E677">
+        <v>-3.9606323319677957E-3</v>
+      </c>
+      <c r="F677">
+        <v>5.7639610591237963E-4</v>
+      </c>
+      <c r="G677">
+        <v>-1.1342476410270089E-5</v>
+      </c>
+      <c r="H677">
+        <v>6.8511762874992627E-8</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>9</v>
+      </c>
+      <c r="B678">
+        <v>6</v>
+      </c>
+      <c r="C678" t="s">
+        <v>26</v>
+      </c>
+      <c r="D678" t="s">
+        <v>14</v>
+      </c>
+      <c r="E678">
+        <v>-7.3440493836929868E-2</v>
+      </c>
+      <c r="F678">
+        <v>1.068788788211383E-2</v>
+      </c>
+      <c r="G678">
+        <v>-2.1031911316939729E-4</v>
+      </c>
+      <c r="H678">
+        <v>1.270386898655924E-6</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>9</v>
+      </c>
+      <c r="B679">
+        <v>6</v>
+      </c>
+      <c r="C679" t="s">
+        <v>26</v>
+      </c>
+      <c r="D679" t="s">
+        <v>15</v>
+      </c>
+      <c r="E679">
+        <v>-0.107876363987236</v>
+      </c>
+      <c r="F679">
+        <v>1.569938745922287E-2</v>
+      </c>
+      <c r="G679">
+        <v>-3.0893674058614319E-4</v>
+      </c>
+      <c r="H679">
+        <v>1.8660652436810141E-6</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>9</v>
+      </c>
+      <c r="B680">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s">
+        <v>26</v>
+      </c>
+      <c r="D680" t="s">
+        <v>16</v>
+      </c>
+      <c r="E680">
+        <v>-9.3805462393594559E-3</v>
+      </c>
+      <c r="F680">
+        <v>1.3651636746324961E-3</v>
+      </c>
+      <c r="G680">
+        <v>-2.6864056023179689E-5</v>
+      </c>
+      <c r="H680">
+        <v>1.6226649387487251E-7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>9</v>
+      </c>
+      <c r="B681">
+        <v>6</v>
+      </c>
+      <c r="C681" t="s">
+        <v>26</v>
+      </c>
+      <c r="D681" t="s">
+        <v>17</v>
+      </c>
+      <c r="E681">
+        <v>0</v>
+      </c>
+      <c r="F681">
+        <v>0</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>9</v>
+      </c>
+      <c r="B682">
+        <v>6</v>
+      </c>
+      <c r="C682" t="s">
+        <v>26</v>
+      </c>
+      <c r="D682" t="s">
+        <v>18</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682">
+        <v>0</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>9</v>
+      </c>
+      <c r="B683">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
+        <v>26</v>
+      </c>
+      <c r="D683" t="s">
+        <v>19</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683">
+        <v>0</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>9</v>
+      </c>
+      <c r="B684">
+        <v>6</v>
+      </c>
+      <c r="C684" t="s">
+        <v>26</v>
+      </c>
+      <c r="D684" t="s">
+        <v>20</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>9</v>
+      </c>
+      <c r="B685">
+        <v>6</v>
+      </c>
+      <c r="C685" t="s">
+        <v>26</v>
+      </c>
+      <c r="D685" t="s">
+        <v>21</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+      <c r="F685">
+        <v>0</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>9</v>
+      </c>
+      <c r="B686">
+        <v>4</v>
+      </c>
+      <c r="C686" t="s">
+        <v>27</v>
+      </c>
+      <c r="D686" t="s">
+        <v>10</v>
+      </c>
+      <c r="E686">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F686">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G686">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H686">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>9</v>
+      </c>
+      <c r="B687">
+        <v>4</v>
+      </c>
+      <c r="C687" t="s">
+        <v>27</v>
+      </c>
+      <c r="D687" t="s">
+        <v>11</v>
+      </c>
+      <c r="E687">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F687">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G687">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H687">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>9</v>
+      </c>
+      <c r="B688">
+        <v>4</v>
+      </c>
+      <c r="C688" t="s">
+        <v>27</v>
+      </c>
+      <c r="D688" t="s">
+        <v>12</v>
+      </c>
+      <c r="E688">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F688">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G688">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H688">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>9</v>
+      </c>
+      <c r="B689">
+        <v>4</v>
+      </c>
+      <c r="C689" t="s">
+        <v>27</v>
+      </c>
+      <c r="D689" t="s">
+        <v>13</v>
+      </c>
+      <c r="E689">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F689">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G689">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H689">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>9</v>
+      </c>
+      <c r="B690">
+        <v>4</v>
+      </c>
+      <c r="C690" t="s">
+        <v>27</v>
+      </c>
+      <c r="D690" t="s">
+        <v>14</v>
+      </c>
+      <c r="E690">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F690">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G690">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H690">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>9</v>
+      </c>
+      <c r="B691">
+        <v>4</v>
+      </c>
+      <c r="C691" t="s">
+        <v>27</v>
+      </c>
+      <c r="D691" t="s">
+        <v>15</v>
+      </c>
+      <c r="E691">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F691">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G691">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H691">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>9</v>
+      </c>
+      <c r="B692">
+        <v>4</v>
+      </c>
+      <c r="C692" t="s">
+        <v>27</v>
+      </c>
+      <c r="D692" t="s">
+        <v>16</v>
+      </c>
+      <c r="E692">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F692">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G692">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H692">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>9</v>
+      </c>
+      <c r="B693">
+        <v>4</v>
+      </c>
+      <c r="C693" t="s">
+        <v>27</v>
+      </c>
+      <c r="D693" t="s">
+        <v>17</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>9</v>
+      </c>
+      <c r="B694">
+        <v>4</v>
+      </c>
+      <c r="C694" t="s">
+        <v>27</v>
+      </c>
+      <c r="D694" t="s">
+        <v>18</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+      <c r="F694">
+        <v>0</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+      <c r="H694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>9</v>
+      </c>
+      <c r="B695">
+        <v>4</v>
+      </c>
+      <c r="C695" t="s">
+        <v>27</v>
+      </c>
+      <c r="D695" t="s">
+        <v>19</v>
+      </c>
+      <c r="E695">
+        <v>0</v>
+      </c>
+      <c r="F695">
+        <v>0</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>9</v>
+      </c>
+      <c r="B696">
+        <v>4</v>
+      </c>
+      <c r="C696" t="s">
+        <v>27</v>
+      </c>
+      <c r="D696" t="s">
+        <v>20</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>9</v>
+      </c>
+      <c r="B697">
+        <v>4</v>
+      </c>
+      <c r="C697" t="s">
+        <v>27</v>
+      </c>
+      <c r="D697" t="s">
+        <v>21</v>
+      </c>
+      <c r="E697">
+        <v>0</v>
+      </c>
+      <c r="F697">
+        <v>0</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>9</v>
+      </c>
+      <c r="B698">
+        <v>5</v>
+      </c>
+      <c r="C698" t="s">
+        <v>27</v>
+      </c>
+      <c r="D698" t="s">
+        <v>10</v>
+      </c>
+      <c r="E698">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F698">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G698">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H698">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>9</v>
+      </c>
+      <c r="B699">
+        <v>5</v>
+      </c>
+      <c r="C699" t="s">
+        <v>27</v>
+      </c>
+      <c r="D699" t="s">
+        <v>11</v>
+      </c>
+      <c r="E699">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F699">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G699">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H699">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>9</v>
+      </c>
+      <c r="B700">
+        <v>5</v>
+      </c>
+      <c r="C700" t="s">
+        <v>27</v>
+      </c>
+      <c r="D700" t="s">
+        <v>12</v>
+      </c>
+      <c r="E700">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F700">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G700">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H700">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>9</v>
+      </c>
+      <c r="B701">
+        <v>5</v>
+      </c>
+      <c r="C701" t="s">
+        <v>27</v>
+      </c>
+      <c r="D701" t="s">
+        <v>13</v>
+      </c>
+      <c r="E701">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F701">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G701">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H701">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>9</v>
+      </c>
+      <c r="B702">
+        <v>5</v>
+      </c>
+      <c r="C702" t="s">
+        <v>27</v>
+      </c>
+      <c r="D702" t="s">
+        <v>14</v>
+      </c>
+      <c r="E702">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F702">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G702">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H702">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>9</v>
+      </c>
+      <c r="B703">
+        <v>5</v>
+      </c>
+      <c r="C703" t="s">
+        <v>27</v>
+      </c>
+      <c r="D703" t="s">
+        <v>15</v>
+      </c>
+      <c r="E703">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F703">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G703">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H703">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>9</v>
+      </c>
+      <c r="B704">
+        <v>5</v>
+      </c>
+      <c r="C704" t="s">
+        <v>27</v>
+      </c>
+      <c r="D704" t="s">
+        <v>16</v>
+      </c>
+      <c r="E704">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F704">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G704">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H704">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>9</v>
+      </c>
+      <c r="B705">
+        <v>5</v>
+      </c>
+      <c r="C705" t="s">
+        <v>27</v>
+      </c>
+      <c r="D705" t="s">
+        <v>17</v>
+      </c>
+      <c r="E705">
+        <v>0</v>
+      </c>
+      <c r="F705">
+        <v>0</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>9</v>
+      </c>
+      <c r="B706">
+        <v>5</v>
+      </c>
+      <c r="C706" t="s">
+        <v>27</v>
+      </c>
+      <c r="D706" t="s">
+        <v>18</v>
+      </c>
+      <c r="E706">
+        <v>0</v>
+      </c>
+      <c r="F706">
+        <v>0</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>9</v>
+      </c>
+      <c r="B707">
+        <v>5</v>
+      </c>
+      <c r="C707" t="s">
+        <v>27</v>
+      </c>
+      <c r="D707" t="s">
+        <v>19</v>
+      </c>
+      <c r="E707">
+        <v>0</v>
+      </c>
+      <c r="F707">
+        <v>0</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>9</v>
+      </c>
+      <c r="B708">
+        <v>5</v>
+      </c>
+      <c r="C708" t="s">
+        <v>27</v>
+      </c>
+      <c r="D708" t="s">
+        <v>20</v>
+      </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
+      <c r="F708">
+        <v>0</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>9</v>
+      </c>
+      <c r="B709">
+        <v>5</v>
+      </c>
+      <c r="C709" t="s">
+        <v>27</v>
+      </c>
+      <c r="D709" t="s">
+        <v>21</v>
+      </c>
+      <c r="E709">
+        <v>0</v>
+      </c>
+      <c r="F709">
+        <v>0</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>9</v>
+      </c>
+      <c r="B710">
+        <v>6</v>
+      </c>
+      <c r="C710" t="s">
+        <v>27</v>
+      </c>
+      <c r="D710" t="s">
+        <v>10</v>
+      </c>
+      <c r="E710">
+        <v>-0.1172569057503413</v>
+      </c>
+      <c r="F710">
+        <v>1.7064550778342642E-2</v>
+      </c>
+      <c r="G710">
+        <v>-3.358007931779243E-4</v>
+      </c>
+      <c r="H710">
+        <v>2.0283317355797798E-6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>9</v>
+      </c>
+      <c r="B711">
+        <v>6</v>
+      </c>
+      <c r="C711" t="s">
+        <v>27</v>
+      </c>
+      <c r="D711" t="s">
+        <v>11</v>
+      </c>
+      <c r="E711">
+        <v>-0.44252186114991388</v>
+      </c>
+      <c r="F711">
+        <v>6.4400776674280652E-2</v>
+      </c>
+      <c r="G711">
+        <v>-1.2672957048539539E-3</v>
+      </c>
+      <c r="H711">
+        <v>7.6548244114928941E-6</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>9</v>
+      </c>
+      <c r="B712">
+        <v>6</v>
+      </c>
+      <c r="C712" t="s">
+        <v>27</v>
+      </c>
+      <c r="D712" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712">
+        <v>-0.29376197534772508</v>
+      </c>
+      <c r="F712">
+        <v>4.2751551528455591E-2</v>
+      </c>
+      <c r="G712">
+        <v>-8.4127645267759394E-4</v>
+      </c>
+      <c r="H712">
+        <v>5.0815475946237212E-6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>9</v>
+      </c>
+      <c r="B713">
+        <v>6</v>
+      </c>
+      <c r="C713" t="s">
+        <v>27</v>
+      </c>
+      <c r="D713" t="s">
+        <v>13</v>
+      </c>
+      <c r="E713">
+        <v>-3.9606323319677957E-3</v>
+      </c>
+      <c r="F713">
+        <v>5.7639610591237963E-4</v>
+      </c>
+      <c r="G713">
+        <v>-1.1342476410270089E-5</v>
+      </c>
+      <c r="H713">
+        <v>6.8511762874992627E-8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>9</v>
+      </c>
+      <c r="B714">
+        <v>6</v>
+      </c>
+      <c r="C714" t="s">
+        <v>27</v>
+      </c>
+      <c r="D714" t="s">
+        <v>14</v>
+      </c>
+      <c r="E714">
+        <v>-7.3440493836929868E-2</v>
+      </c>
+      <c r="F714">
+        <v>1.068788788211383E-2</v>
+      </c>
+      <c r="G714">
+        <v>-2.1031911316939729E-4</v>
+      </c>
+      <c r="H714">
+        <v>1.270386898655924E-6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>9</v>
+      </c>
+      <c r="B715">
+        <v>6</v>
+      </c>
+      <c r="C715" t="s">
+        <v>27</v>
+      </c>
+      <c r="D715" t="s">
+        <v>15</v>
+      </c>
+      <c r="E715">
+        <v>-0.107876363987236</v>
+      </c>
+      <c r="F715">
+        <v>1.569938745922287E-2</v>
+      </c>
+      <c r="G715">
+        <v>-3.0893674058614319E-4</v>
+      </c>
+      <c r="H715">
+        <v>1.8660652436810141E-6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>9</v>
+      </c>
+      <c r="B716">
+        <v>6</v>
+      </c>
+      <c r="C716" t="s">
+        <v>27</v>
+      </c>
+      <c r="D716" t="s">
+        <v>16</v>
+      </c>
+      <c r="E716">
+        <v>-9.3805462393594559E-3</v>
+      </c>
+      <c r="F716">
+        <v>1.3651636746324961E-3</v>
+      </c>
+      <c r="G716">
+        <v>-2.6864056023179689E-5</v>
+      </c>
+      <c r="H716">
+        <v>1.6226649387487251E-7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>9</v>
+      </c>
+      <c r="B717">
+        <v>6</v>
+      </c>
+      <c r="C717" t="s">
+        <v>27</v>
+      </c>
+      <c r="D717" t="s">
+        <v>17</v>
+      </c>
+      <c r="E717">
+        <v>0</v>
+      </c>
+      <c r="F717">
+        <v>0</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>9</v>
+      </c>
+      <c r="B718">
+        <v>6</v>
+      </c>
+      <c r="C718" t="s">
+        <v>27</v>
+      </c>
+      <c r="D718" t="s">
+        <v>18</v>
+      </c>
+      <c r="E718">
+        <v>0</v>
+      </c>
+      <c r="F718">
+        <v>0</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>9</v>
+      </c>
+      <c r="B719">
+        <v>6</v>
+      </c>
+      <c r="C719" t="s">
+        <v>27</v>
+      </c>
+      <c r="D719" t="s">
+        <v>19</v>
+      </c>
+      <c r="E719">
+        <v>0</v>
+      </c>
+      <c r="F719">
+        <v>0</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>9</v>
+      </c>
+      <c r="B720">
+        <v>6</v>
+      </c>
+      <c r="C720" t="s">
+        <v>27</v>
+      </c>
+      <c r="D720" t="s">
+        <v>20</v>
+      </c>
+      <c r="E720">
+        <v>0</v>
+      </c>
+      <c r="F720">
+        <v>0</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>9</v>
+      </c>
+      <c r="B721">
+        <v>6</v>
+      </c>
+      <c r="C721" t="s">
+        <v>27</v>
+      </c>
+      <c r="D721" t="s">
+        <v>21</v>
+      </c>
+      <c r="E721">
+        <v>0</v>
+      </c>
+      <c r="F721">
+        <v>0</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>9</v>
+      </c>
+      <c r="B722">
+        <v>3</v>
+      </c>
+      <c r="C722" t="s">
+        <v>22</v>
+      </c>
+      <c r="D722" t="s">
+        <v>10</v>
+      </c>
+      <c r="E722">
+        <v>2.352054585991023E-2</v>
+      </c>
+      <c r="F722">
+        <v>5.6046746473861859E-3</v>
+      </c>
+      <c r="G722">
+        <v>-1.050423821947365E-4</v>
+      </c>
+      <c r="H722">
+        <v>7.1069244385092659E-7</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>9</v>
+      </c>
+      <c r="B723">
+        <v>3</v>
+      </c>
+      <c r="C723" t="s">
+        <v>22</v>
+      </c>
+      <c r="D723" t="s">
+        <v>11</v>
+      </c>
+      <c r="E723">
+        <v>4.9850325571755311E-2</v>
+      </c>
+      <c r="F723">
+        <v>1.1878700692850011E-2</v>
+      </c>
+      <c r="G723">
+        <v>-2.2262965221785011E-4</v>
+      </c>
+      <c r="H723">
+        <v>1.506260728665583E-6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>9</v>
+      </c>
+      <c r="B724">
+        <v>3</v>
+      </c>
+      <c r="C724" t="s">
+        <v>22</v>
+      </c>
+      <c r="D724" t="s">
+        <v>12</v>
+      </c>
+      <c r="E724">
+        <v>9.065636084991148E-2</v>
+      </c>
+      <c r="F724">
+        <v>2.160232984909357E-2</v>
+      </c>
+      <c r="G724">
+        <v>-4.0486914916847572E-4</v>
+      </c>
+      <c r="H724">
+        <v>2.7392508221105682E-6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>9</v>
+      </c>
+      <c r="B725">
+        <v>3</v>
+      </c>
+      <c r="C725" t="s">
+        <v>22</v>
+      </c>
+      <c r="D725" t="s">
+        <v>13</v>
+      </c>
+      <c r="E725">
+        <v>3.889678981036638E-4</v>
+      </c>
+      <c r="F725">
+        <v>9.2686353624654041E-5</v>
+      </c>
+      <c r="G725">
+        <v>-1.737120337905387E-6</v>
+      </c>
+      <c r="H725">
+        <v>1.17529542411142E-8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>9</v>
+      </c>
+      <c r="B726">
+        <v>3</v>
+      </c>
+      <c r="C726" t="s">
+        <v>22</v>
+      </c>
+      <c r="D726" t="s">
+        <v>14</v>
+      </c>
+      <c r="E726">
+        <v>2.2664090212486811E-2</v>
+      </c>
+      <c r="F726">
+        <v>5.4005824622728356E-3</v>
+      </c>
+      <c r="G726">
+        <v>-1.012172872921082E-4</v>
+      </c>
+      <c r="H726">
+        <v>6.8481270552757682E-7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>9</v>
+      </c>
+      <c r="B727">
+        <v>3</v>
+      </c>
+      <c r="C727" t="s">
+        <v>22</v>
+      </c>
+      <c r="D727" t="s">
+        <v>15</v>
+      </c>
+      <c r="E727">
+        <v>2.1638890820029479E-2</v>
+      </c>
+      <c r="F727">
+        <v>5.1563014092822594E-3</v>
+      </c>
+      <c r="G727">
+        <v>-9.6639003259734124E-5</v>
+      </c>
+      <c r="H727">
+        <v>6.5383710881215968E-7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>9</v>
+      </c>
+      <c r="B728">
+        <v>3</v>
+      </c>
+      <c r="C728" t="s">
+        <v>22</v>
+      </c>
+      <c r="D728" t="s">
+        <v>16</v>
+      </c>
+      <c r="E728">
+        <v>1.881643598390283E-3</v>
+      </c>
+      <c r="F728">
+        <v>4.4837393483723308E-4</v>
+      </c>
+      <c r="G728">
+        <v>-8.4033895521830414E-6</v>
+      </c>
+      <c r="H728">
+        <v>5.6855388604608101E-8</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>9</v>
+      </c>
+      <c r="B729">
+        <v>3</v>
+      </c>
+      <c r="C729" t="s">
+        <v>22</v>
+      </c>
+      <c r="D729" t="s">
+        <v>17</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+      <c r="F729">
+        <v>0</v>
+      </c>
+      <c r="G729">
+        <v>0</v>
+      </c>
+      <c r="H729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>9</v>
+      </c>
+      <c r="B730">
+        <v>3</v>
+      </c>
+      <c r="C730" t="s">
+        <v>22</v>
+      </c>
+      <c r="D730" t="s">
+        <v>18</v>
+      </c>
+      <c r="E730">
+        <v>0</v>
+      </c>
+      <c r="F730">
+        <v>0</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+      <c r="H730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>9</v>
+      </c>
+      <c r="B731">
+        <v>3</v>
+      </c>
+      <c r="C731" t="s">
+        <v>22</v>
+      </c>
+      <c r="D731" t="s">
+        <v>19</v>
+      </c>
+      <c r="E731">
+        <v>0</v>
+      </c>
+      <c r="F731">
+        <v>0</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>9</v>
+      </c>
+      <c r="B732">
+        <v>3</v>
+      </c>
+      <c r="C732" t="s">
+        <v>22</v>
+      </c>
+      <c r="D732" t="s">
+        <v>20</v>
+      </c>
+      <c r="E732">
+        <v>0</v>
+      </c>
+      <c r="F732">
+        <v>0</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>9</v>
+      </c>
+      <c r="B733">
+        <v>3</v>
+      </c>
+      <c r="C733" t="s">
+        <v>22</v>
+      </c>
+      <c r="D733" t="s">
+        <v>21</v>
+      </c>
+      <c r="E733">
+        <v>0</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734">
+        <v>3</v>
+      </c>
+      <c r="C734" t="s">
+        <v>23</v>
+      </c>
+      <c r="D734" t="s">
+        <v>10</v>
+      </c>
+      <c r="E734">
+        <v>-4.2469002027866491E-3</v>
+      </c>
+      <c r="F734">
+        <v>9.0333993698321936E-3</v>
+      </c>
+      <c r="G734">
+        <v>-1.738384709139651E-4</v>
+      </c>
+      <c r="H734">
+        <v>1.1223832969903509E-6</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>9</v>
+      </c>
+      <c r="B735">
+        <v>3</v>
+      </c>
+      <c r="C735" t="s">
+        <v>23</v>
+      </c>
+      <c r="D735" t="s">
+        <v>11</v>
+      </c>
+      <c r="E735">
+        <v>-9.0008601064582895E-3</v>
+      </c>
+      <c r="F735">
+        <v>1.9145645641693389E-2</v>
+      </c>
+      <c r="G735">
+        <v>-3.6843824140962749E-4</v>
+      </c>
+      <c r="H735">
+        <v>2.3788114671763749E-6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>9</v>
+      </c>
+      <c r="B736">
+        <v>3</v>
+      </c>
+      <c r="C736" t="s">
+        <v>23</v>
+      </c>
+      <c r="D736" t="s">
+        <v>12</v>
+      </c>
+      <c r="E736">
+        <v>-1.6368869771306149E-2</v>
+      </c>
+      <c r="F736">
+        <v>3.4817810805509337E-2</v>
+      </c>
+      <c r="G736">
+        <v>-6.7003291906296244E-4</v>
+      </c>
+      <c r="H736">
+        <v>4.3260491620194131E-6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>9</v>
+      </c>
+      <c r="B737">
+        <v>3</v>
+      </c>
+      <c r="C737" t="s">
+        <v>23</v>
+      </c>
+      <c r="D737" t="s">
+        <v>13</v>
+      </c>
+      <c r="E737">
+        <v>-7.0232952854794864E-5</v>
+      </c>
+      <c r="F737">
+        <v>1.4938841335473149E-4</v>
+      </c>
+      <c r="G737">
+        <v>-2.8748262005501459E-6</v>
+      </c>
+      <c r="H737">
+        <v>1.856123581541441E-8</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>9</v>
+      </c>
+      <c r="B738">
+        <v>3</v>
+      </c>
+      <c r="C738" t="s">
+        <v>23</v>
+      </c>
+      <c r="D738" t="s">
+        <v>14</v>
+      </c>
+      <c r="E738">
+        <v>-4.0922174428238587E-3</v>
+      </c>
+      <c r="F738">
+        <v>8.7044527013771383E-3</v>
+      </c>
+      <c r="G738">
+        <v>-1.6750822976573641E-4</v>
+      </c>
+      <c r="H738">
+        <v>1.081512290504827E-6</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>9</v>
+      </c>
+      <c r="B739">
+        <v>3</v>
+      </c>
+      <c r="C739" t="s">
+        <v>23</v>
+      </c>
+      <c r="D739" t="s">
+        <v>15</v>
+      </c>
+      <c r="E739">
+        <v>-3.9072312356624303E-3</v>
+      </c>
+      <c r="F739">
+        <v>8.3107325056972683E-3</v>
+      </c>
+      <c r="G739">
+        <v>-1.5993149044383819E-4</v>
+      </c>
+      <c r="H739">
+        <v>1.0325932205086821E-6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>9</v>
+      </c>
+      <c r="B740">
+        <v>3</v>
+      </c>
+      <c r="C740" t="s">
+        <v>23</v>
+      </c>
+      <c r="D740" t="s">
+        <v>16</v>
+      </c>
+      <c r="E740">
+        <v>-3.3975212691370971E-4</v>
+      </c>
+      <c r="F740">
+        <v>7.2267193378444054E-4</v>
+      </c>
+      <c r="G740">
+        <v>-1.390707708231807E-5</v>
+      </c>
+      <c r="H740">
+        <v>8.9790658127177487E-8</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>9</v>
+      </c>
+      <c r="B741">
+        <v>3</v>
+      </c>
+      <c r="C741" t="s">
+        <v>23</v>
+      </c>
+      <c r="D741" t="s">
+        <v>17</v>
+      </c>
+      <c r="E741">
+        <v>0</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>9</v>
+      </c>
+      <c r="B742">
+        <v>3</v>
+      </c>
+      <c r="C742" t="s">
+        <v>23</v>
+      </c>
+      <c r="D742" t="s">
+        <v>18</v>
+      </c>
+      <c r="E742">
+        <v>0</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>9</v>
+      </c>
+      <c r="B743">
+        <v>3</v>
+      </c>
+      <c r="C743" t="s">
+        <v>23</v>
+      </c>
+      <c r="D743" t="s">
+        <v>19</v>
+      </c>
+      <c r="E743">
+        <v>0</v>
+      </c>
+      <c r="F743">
+        <v>0</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>9</v>
+      </c>
+      <c r="B744">
+        <v>3</v>
+      </c>
+      <c r="C744" t="s">
+        <v>23</v>
+      </c>
+      <c r="D744" t="s">
+        <v>20</v>
+      </c>
+      <c r="E744">
+        <v>0</v>
+      </c>
+      <c r="F744">
+        <v>0</v>
+      </c>
+      <c r="G744">
+        <v>0</v>
+      </c>
+      <c r="H744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>9</v>
+      </c>
+      <c r="B745">
+        <v>3</v>
+      </c>
+      <c r="C745" t="s">
+        <v>23</v>
+      </c>
+      <c r="D745" t="s">
+        <v>21</v>
+      </c>
+      <c r="E745">
+        <v>0</v>
+      </c>
+      <c r="F745">
+        <v>0</v>
+      </c>
+      <c r="G745">
+        <v>0</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>9</v>
+      </c>
+      <c r="B746">
+        <v>3</v>
+      </c>
+      <c r="C746" t="s">
+        <v>24</v>
+      </c>
+      <c r="D746" t="s">
+        <v>10</v>
+      </c>
+      <c r="E746">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F746">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G746">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H746">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>9</v>
+      </c>
+      <c r="B747">
+        <v>3</v>
+      </c>
+      <c r="C747" t="s">
+        <v>24</v>
+      </c>
+      <c r="D747" t="s">
+        <v>11</v>
+      </c>
+      <c r="E747">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F747">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G747">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H747">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>9</v>
+      </c>
+      <c r="B748">
+        <v>3</v>
+      </c>
+      <c r="C748" t="s">
+        <v>24</v>
+      </c>
+      <c r="D748" t="s">
+        <v>12</v>
+      </c>
+      <c r="E748">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F748">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G748">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H748">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>9</v>
+      </c>
+      <c r="B749">
+        <v>3</v>
+      </c>
+      <c r="C749" t="s">
+        <v>24</v>
+      </c>
+      <c r="D749" t="s">
+        <v>13</v>
+      </c>
+      <c r="E749">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F749">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G749">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H749">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>9</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="C750" t="s">
+        <v>24</v>
+      </c>
+      <c r="D750" t="s">
+        <v>14</v>
+      </c>
+      <c r="E750">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F750">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G750">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H750">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>9</v>
+      </c>
+      <c r="B751">
+        <v>3</v>
+      </c>
+      <c r="C751" t="s">
+        <v>24</v>
+      </c>
+      <c r="D751" t="s">
+        <v>15</v>
+      </c>
+      <c r="E751">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F751">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G751">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H751">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>9</v>
+      </c>
+      <c r="B752">
+        <v>3</v>
+      </c>
+      <c r="C752" t="s">
+        <v>24</v>
+      </c>
+      <c r="D752" t="s">
+        <v>16</v>
+      </c>
+      <c r="E752">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F752">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G752">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H752">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>9</v>
+      </c>
+      <c r="B753">
+        <v>3</v>
+      </c>
+      <c r="C753" t="s">
+        <v>24</v>
+      </c>
+      <c r="D753" t="s">
+        <v>17</v>
+      </c>
+      <c r="E753">
+        <v>0</v>
+      </c>
+      <c r="F753">
+        <v>0</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>9</v>
+      </c>
+      <c r="B754">
+        <v>3</v>
+      </c>
+      <c r="C754" t="s">
+        <v>24</v>
+      </c>
+      <c r="D754" t="s">
+        <v>18</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754">
+        <v>0</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>9</v>
+      </c>
+      <c r="B755">
+        <v>3</v>
+      </c>
+      <c r="C755" t="s">
+        <v>24</v>
+      </c>
+      <c r="D755" t="s">
+        <v>19</v>
+      </c>
+      <c r="E755">
+        <v>0</v>
+      </c>
+      <c r="F755">
+        <v>0</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>9</v>
+      </c>
+      <c r="B756">
+        <v>3</v>
+      </c>
+      <c r="C756" t="s">
+        <v>24</v>
+      </c>
+      <c r="D756" t="s">
+        <v>20</v>
+      </c>
+      <c r="E756">
+        <v>0</v>
+      </c>
+      <c r="F756">
+        <v>0</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>9</v>
+      </c>
+      <c r="B757">
+        <v>3</v>
+      </c>
+      <c r="C757" t="s">
+        <v>24</v>
+      </c>
+      <c r="D757" t="s">
+        <v>21</v>
+      </c>
+      <c r="E757">
+        <v>0</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>9</v>
+      </c>
+      <c r="B758">
+        <v>3</v>
+      </c>
+      <c r="C758" t="s">
+        <v>25</v>
+      </c>
+      <c r="D758" t="s">
+        <v>10</v>
+      </c>
+      <c r="E758">
+        <v>1.8501783846802872E-2</v>
+      </c>
+      <c r="F758">
+        <v>1.1970858863256349E-2</v>
+      </c>
+      <c r="G758">
+        <v>-2.4482465107308768E-4</v>
+      </c>
+      <c r="H758">
+        <v>1.556575958604896E-6</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>9</v>
+      </c>
+      <c r="B759">
+        <v>3</v>
+      </c>
+      <c r="C759" t="s">
+        <v>25</v>
+      </c>
+      <c r="D759" t="s">
+        <v>11</v>
+      </c>
+      <c r="E759">
+        <v>3.9213273503152728E-2</v>
+      </c>
+      <c r="F759">
+        <v>2.537139004340724E-2</v>
+      </c>
+      <c r="G759">
+        <v>-5.1888853640867096E-4</v>
+      </c>
+      <c r="H759">
+        <v>3.299052560850165E-6</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>9</v>
+      </c>
+      <c r="B760">
+        <v>3</v>
+      </c>
+      <c r="C760" t="s">
+        <v>25</v>
+      </c>
+      <c r="D760" t="s">
+        <v>12</v>
+      </c>
+      <c r="E760">
+        <v>7.1312680280766677E-2</v>
+      </c>
+      <c r="F760">
+        <v>4.6139766279654722E-2</v>
+      </c>
+      <c r="G760">
+        <v>-9.4363759552408381E-4</v>
+      </c>
+      <c r="H760">
+        <v>5.9995741390098946E-6</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>9</v>
+      </c>
+      <c r="B761">
+        <v>3</v>
+      </c>
+      <c r="C761" t="s">
+        <v>25</v>
+      </c>
+      <c r="D761" t="s">
+        <v>13</v>
+      </c>
+      <c r="E761">
+        <v>3.0596940034239461E-4</v>
+      </c>
+      <c r="F761">
+        <v>1.979661927706188E-4</v>
+      </c>
+      <c r="G761">
+        <v>-4.0487489338400833E-6</v>
+      </c>
+      <c r="H761">
+        <v>2.5741627809733679E-8</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>9</v>
+      </c>
+      <c r="B762">
+        <v>3</v>
+      </c>
+      <c r="C762" t="s">
+        <v>25</v>
+      </c>
+      <c r="D762" t="s">
+        <v>14</v>
+      </c>
+      <c r="E762">
+        <v>1.7828170070191132E-2</v>
+      </c>
+      <c r="F762">
+        <v>1.153494156991368E-2</v>
+      </c>
+      <c r="G762">
+        <v>-2.3590939888102079E-4</v>
+      </c>
+      <c r="H762">
+        <v>1.499893534752472E-6</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>9</v>
+      </c>
+      <c r="B763">
+        <v>3</v>
+      </c>
+      <c r="C763" t="s">
+        <v>25</v>
+      </c>
+      <c r="D763" t="s">
+        <v>15</v>
+      </c>
+      <c r="E763">
+        <v>1.702170997632426E-2</v>
+      </c>
+      <c r="F763">
+        <v>1.101318583655214E-2</v>
+      </c>
+      <c r="G763">
+        <v>-2.2523859609811529E-4</v>
+      </c>
+      <c r="H763">
+        <v>1.43204939969259E-6</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>9</v>
+      </c>
+      <c r="B764">
+        <v>3</v>
+      </c>
+      <c r="C764" t="s">
+        <v>25</v>
+      </c>
+      <c r="D764" t="s">
+        <v>16</v>
+      </c>
+      <c r="E764">
+        <v>1.48013988229919E-3</v>
+      </c>
+      <c r="F764">
+        <v>9.5766890257802779E-4</v>
+      </c>
+      <c r="G764">
+        <v>-1.9585976840312181E-5</v>
+      </c>
+      <c r="H764">
+        <v>1.2452611157431509E-7</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>9</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765" t="s">
+        <v>25</v>
+      </c>
+      <c r="D765" t="s">
+        <v>17</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+      <c r="F765">
+        <v>0</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>9</v>
+      </c>
+      <c r="B766">
+        <v>3</v>
+      </c>
+      <c r="C766" t="s">
+        <v>25</v>
+      </c>
+      <c r="D766" t="s">
+        <v>18</v>
+      </c>
+      <c r="E766">
+        <v>0</v>
+      </c>
+      <c r="F766">
+        <v>0</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>9</v>
+      </c>
+      <c r="B767">
+        <v>3</v>
+      </c>
+      <c r="C767" t="s">
+        <v>25</v>
+      </c>
+      <c r="D767" t="s">
+        <v>19</v>
+      </c>
+      <c r="E767">
+        <v>0</v>
+      </c>
+      <c r="F767">
+        <v>0</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>9</v>
+      </c>
+      <c r="B768">
+        <v>3</v>
+      </c>
+      <c r="C768" t="s">
+        <v>25</v>
+      </c>
+      <c r="D768" t="s">
+        <v>20</v>
+      </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
+      <c r="F768">
+        <v>0</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>9</v>
+      </c>
+      <c r="B769">
+        <v>3</v>
+      </c>
+      <c r="C769" t="s">
+        <v>25</v>
+      </c>
+      <c r="D769" t="s">
+        <v>21</v>
+      </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>9</v>
+      </c>
+      <c r="B770">
+        <v>3</v>
+      </c>
+      <c r="C770" t="s">
+        <v>26</v>
+      </c>
+      <c r="D770" t="s">
+        <v>10</v>
+      </c>
+      <c r="E770">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F770">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G770">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H770">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>9</v>
+      </c>
+      <c r="B771">
+        <v>3</v>
+      </c>
+      <c r="C771" t="s">
+        <v>26</v>
+      </c>
+      <c r="D771" t="s">
+        <v>11</v>
+      </c>
+      <c r="E771">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F771">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G771">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H771">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>9</v>
+      </c>
+      <c r="B772">
+        <v>3</v>
+      </c>
+      <c r="C772" t="s">
+        <v>26</v>
+      </c>
+      <c r="D772" t="s">
+        <v>12</v>
+      </c>
+      <c r="E772">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F772">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G772">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H772">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>9</v>
+      </c>
+      <c r="B773">
+        <v>3</v>
+      </c>
+      <c r="C773" t="s">
+        <v>26</v>
+      </c>
+      <c r="D773" t="s">
+        <v>13</v>
+      </c>
+      <c r="E773">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F773">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G773">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H773">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>9</v>
+      </c>
+      <c r="B774">
+        <v>3</v>
+      </c>
+      <c r="C774" t="s">
+        <v>26</v>
+      </c>
+      <c r="D774" t="s">
+        <v>14</v>
+      </c>
+      <c r="E774">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F774">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G774">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H774">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>9</v>
+      </c>
+      <c r="B775">
+        <v>3</v>
+      </c>
+      <c r="C775" t="s">
+        <v>26</v>
+      </c>
+      <c r="D775" t="s">
+        <v>15</v>
+      </c>
+      <c r="E775">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F775">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G775">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H775">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>9</v>
+      </c>
+      <c r="B776">
+        <v>3</v>
+      </c>
+      <c r="C776" t="s">
+        <v>26</v>
+      </c>
+      <c r="D776" t="s">
+        <v>16</v>
+      </c>
+      <c r="E776">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F776">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G776">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H776">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>9</v>
+      </c>
+      <c r="B777">
+        <v>3</v>
+      </c>
+      <c r="C777" t="s">
+        <v>26</v>
+      </c>
+      <c r="D777" t="s">
+        <v>17</v>
+      </c>
+      <c r="E777">
+        <v>0</v>
+      </c>
+      <c r="F777">
+        <v>0</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>9</v>
+      </c>
+      <c r="B778">
+        <v>3</v>
+      </c>
+      <c r="C778" t="s">
+        <v>26</v>
+      </c>
+      <c r="D778" t="s">
+        <v>18</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778">
+        <v>0</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>9</v>
+      </c>
+      <c r="B779">
+        <v>3</v>
+      </c>
+      <c r="C779" t="s">
+        <v>26</v>
+      </c>
+      <c r="D779" t="s">
+        <v>19</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779">
+        <v>0</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>9</v>
+      </c>
+      <c r="B780">
+        <v>3</v>
+      </c>
+      <c r="C780" t="s">
+        <v>26</v>
+      </c>
+      <c r="D780" t="s">
+        <v>20</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+      <c r="F780">
+        <v>0</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>9</v>
+      </c>
+      <c r="B781">
+        <v>3</v>
+      </c>
+      <c r="C781" t="s">
+        <v>26</v>
+      </c>
+      <c r="D781" t="s">
+        <v>21</v>
+      </c>
+      <c r="E781">
+        <v>0</v>
+      </c>
+      <c r="F781">
+        <v>0</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>9</v>
+      </c>
+      <c r="B782">
+        <v>3</v>
+      </c>
+      <c r="C782" t="s">
+        <v>27</v>
+      </c>
+      <c r="D782" t="s">
+        <v>10</v>
+      </c>
+      <c r="E782">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F782">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G782">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H782">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>9</v>
+      </c>
+      <c r="B783">
+        <v>3</v>
+      </c>
+      <c r="C783" t="s">
+        <v>27</v>
+      </c>
+      <c r="D783" t="s">
+        <v>11</v>
+      </c>
+      <c r="E783">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F783">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G783">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H783">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>9</v>
+      </c>
+      <c r="B784">
+        <v>3</v>
+      </c>
+      <c r="C784" t="s">
+        <v>27</v>
+      </c>
+      <c r="D784" t="s">
+        <v>12</v>
+      </c>
+      <c r="E784">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F784">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G784">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H784">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>9</v>
+      </c>
+      <c r="B785">
+        <v>3</v>
+      </c>
+      <c r="C785" t="s">
+        <v>27</v>
+      </c>
+      <c r="D785" t="s">
+        <v>13</v>
+      </c>
+      <c r="E785">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F785">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G785">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H785">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>9</v>
+      </c>
+      <c r="B786">
+        <v>3</v>
+      </c>
+      <c r="C786" t="s">
+        <v>27</v>
+      </c>
+      <c r="D786" t="s">
+        <v>14</v>
+      </c>
+      <c r="E786">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F786">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G786">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H786">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>9</v>
+      </c>
+      <c r="B787">
+        <v>3</v>
+      </c>
+      <c r="C787" t="s">
+        <v>27</v>
+      </c>
+      <c r="D787" t="s">
+        <v>15</v>
+      </c>
+      <c r="E787">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F787">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G787">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H787">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>9</v>
+      </c>
+      <c r="B788">
+        <v>3</v>
+      </c>
+      <c r="C788" t="s">
+        <v>27</v>
+      </c>
+      <c r="D788" t="s">
+        <v>16</v>
+      </c>
+      <c r="E788">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F788">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G788">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H788">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>9</v>
+      </c>
+      <c r="B789">
+        <v>3</v>
+      </c>
+      <c r="C789" t="s">
+        <v>27</v>
+      </c>
+      <c r="D789" t="s">
+        <v>17</v>
+      </c>
+      <c r="E789">
+        <v>0</v>
+      </c>
+      <c r="F789">
+        <v>0</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>9</v>
+      </c>
+      <c r="B790">
+        <v>3</v>
+      </c>
+      <c r="C790" t="s">
+        <v>27</v>
+      </c>
+      <c r="D790" t="s">
+        <v>18</v>
+      </c>
+      <c r="E790">
+        <v>0</v>
+      </c>
+      <c r="F790">
+        <v>0</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>9</v>
+      </c>
+      <c r="B791">
+        <v>3</v>
+      </c>
+      <c r="C791" t="s">
+        <v>27</v>
+      </c>
+      <c r="D791" t="s">
+        <v>19</v>
+      </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
+      <c r="F791">
+        <v>0</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>9</v>
+      </c>
+      <c r="B792">
+        <v>3</v>
+      </c>
+      <c r="C792" t="s">
+        <v>27</v>
+      </c>
+      <c r="D792" t="s">
+        <v>20</v>
+      </c>
+      <c r="E792">
+        <v>0</v>
+      </c>
+      <c r="F792">
+        <v>0</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>9</v>
+      </c>
+      <c r="B793">
+        <v>3</v>
+      </c>
+      <c r="C793" t="s">
+        <v>27</v>
+      </c>
+      <c r="D793" t="s">
+        <v>21</v>
+      </c>
+      <c r="E793">
+        <v>0</v>
+      </c>
+      <c r="F793">
+        <v>0</v>
+      </c>
+      <c r="G793">
+        <v>0</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H577"/>
+  <autoFilter ref="A1:H793"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/carculator_truck/data/HEM_factors_trucks.xlsx
+++ b/carculator_truck/data/HEM_factors_trucks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\carculator_truck\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\carculator_truck\carculator_truck\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA1A53-BC53-4B87-9F37-B875294F8AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="27">
   <si>
     <t>powertrain</t>
   </si>
@@ -102,11 +101,14 @@
   <si>
     <t>60t</t>
   </si>
+  <si>
+    <t>32t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,23 +259,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,23 +294,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,21 +469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H661"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H771"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="F768" sqref="F768"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -567,7 +535,7 @@
         <v>-2.2275898847662061E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -593,7 +561,7 @@
         <v>-2.074280960278486E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -619,7 +587,7 @@
         <v>1.1649494955775629E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -645,7 +613,7 @@
         <v>-6.4604055071401744E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -671,7 +639,7 @@
         <v>8.1546419297839017E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -697,7 +665,7 @@
         <v>-5.3462140319040746E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -723,7 +691,7 @@
         <v>-2.174127718641978E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -749,7 +717,7 @@
         <v>-4.9034577268400378E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -775,7 +743,7 @@
         <v>-4.9560714787798823E-24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -801,7 +769,7 @@
         <v>-3.720075812268851E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -827,7 +795,7 @@
         <v>-2.8417534825782459E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -853,7 +821,7 @@
         <v>-2.5285541406702649E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -879,7 +847,7 @@
         <v>4.7813009563939279E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -905,7 +873,7 @@
         <v>-2.883065800022119E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -931,7 +899,7 @@
         <v>3.3469082993161419E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -957,7 +925,7 @@
         <v>-6.8202101895840306E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -983,7 +951,7 @@
         <v>-2.7735515299029271E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +977,7 @@
         <v>-4.9034047998502991E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1003,7 @@
         <v>2.688209584514849E-24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1029,7 @@
         <v>-4.7457274608689732E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1055,7 @@
         <v>-1.930828160400878E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1081,7 @@
         <v>-1.386394972843967E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1107,7 @@
         <v>6.9668989203182472E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1133,7 @@
         <v>-3.7870182841988471E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1159,7 @@
         <v>4.8768300996039883E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1185,7 @@
         <v>-4.6339874732871172E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1211,7 @@
         <v>-1.8844889367519681E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1237,7 @@
         <v>-2.5292872650412909E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1263,7 @@
         <v>-9.406172262655657E-25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1289,7 @@
         <v>-3.2244830255498791E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1315,7 @@
         <v>-2.5775112464349041E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1341,7 @@
         <v>-6.4811117993409422E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1367,7 @@
         <v>1.1931140063079941E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1393,7 @@
         <v>-7.1614206716140361E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1419,7 @@
         <v>8.3517978701337536E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1445,7 @@
         <v>-6.1860265735399179E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1471,7 @@
         <v>-2.515650950131107E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1497,7 @@
         <v>-2.009247701487885E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1523,7 @@
         <v>2.3818134302588039E-24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1549,7 @@
         <v>-4.3044430943809518E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1575,7 @@
         <v>-6.5875058811740141E-6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1601,7 @@
         <v>-7.5435226430029673E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1627,7 @@
         <v>2.1703332463431151E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1653,7 @@
         <v>-6.1459246481658647E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1711,7 +1679,7 @@
         <v>1.519232787780165E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1705,7 @@
         <v>-1.581001225581808E-7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1731,7 @@
         <v>-6.4294058852517728E-6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1757,7 @@
         <v>-6.9401824844463723E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1783,7 @@
         <v>-2.638615814834586E-23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1809,7 @@
         <v>-1.100113832561642E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1835,7 @@
         <v>-8.5734968511992593E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1861,7 @@
         <v>-9.678267801859664E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1887,7 @@
         <v>3.0152523787614518E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1913,7 @@
         <v>-7.4779922168042526E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1939,7 @@
         <v>2.1106766517994301E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +1965,7 @@
         <v>-2.0576393331886461E-7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +1991,7 @@
         <v>-8.3677283256449924E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +2017,7 @@
         <v>-6.9678973831473157E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2075,7 +2043,7 @@
         <v>-3.4370730304996752E-23</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2069,7 @@
         <v>-1.431773677799582E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2095,7 @@
         <v>-5.3625882477293101E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2121,7 @@
         <v>-1.2572024845771529E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2147,7 @@
         <v>-3.5784733598848079E-7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2173,7 @@
         <v>-3.267971728828656E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2199,7 @@
         <v>-2.504756788408207E-8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +2225,7 @@
         <v>-1.2870211355626689E-7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2283,7 +2251,7 @@
         <v>-5.2338870486991084E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +2277,7 @@
         <v>-4.9014007091219708E-8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2303,7 @@
         <v>1.5074020584143339E-23</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2329,7 @@
         <v>-8.9555192232634865E-8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2387,7 +2355,7 @@
         <v>-1.113536701148979E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2381,7 @@
         <v>-1.0574179076289641E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2439,7 +2407,7 @@
         <v>9.0881031488996001E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2465,7 +2433,7 @@
         <v>-1.576849823734909E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2459,7 @@
         <v>6.3616832806752603E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2485,7 @@
         <v>-2.6724920517146292E-8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2511,7 @@
         <v>-1.086810776060932E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2537,7 @@
         <v>-4.8333975913359621E-8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2563,7 @@
         <v>4.2573756407211522E-23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2589,7 @@
         <v>-1.8596071768281329E-8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2647,7 +2615,7 @@
         <v>-2.974210920727451E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2673,7 +2641,7 @@
         <v>-2.243957157751068E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2667,7 @@
         <v>4.7393456714929857E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2693,7 @@
         <v>-2.843181701407719E-6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2751,7 +2719,7 @@
         <v>3.3175404827453569E-6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +2745,7 @@
         <v>-7.1381083959022448E-8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2803,7 +2771,7 @@
         <v>-2.902831227251384E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2797,7 @@
         <v>-2.3666133479752729E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2855,7 +2823,7 @@
         <v>-5.2266614361001628E-24</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2881,7 +2849,7 @@
         <v>-4.9669301059544788E-8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2875,7 @@
         <v>-6.2295500097113847E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2901,7 @@
         <v>-4.6835300972409987E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +2927,7 @@
         <v>8.2785576953430792E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2985,7 +2953,7 @@
         <v>-5.00378799935884E-6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +2979,7 @@
         <v>5.7949921736524118E-6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3037,7 +3005,7 @@
         <v>-1.495092154067632E-7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3063,7 +3031,7 @@
         <v>-6.0800405051688383E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3089,7 +3057,7 @@
         <v>-2.045826303940365E-8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3083,7 @@
         <v>1.966175184826024E-23</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3141,7 +3109,7 @@
         <v>-1.040334677925392E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3135,7 @@
         <v>-3.9265270187949184E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +3161,7 @@
         <v>-5.1619285759855382E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3219,7 +3187,7 @@
         <v>1.2574719745145311E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3245,7 +3213,7 @@
         <v>-5.3445295070266458E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3271,7 +3239,7 @@
         <v>8.8023035661208657E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3265,7 @@
         <v>-9.4236638183842263E-8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +3291,7 @@
         <v>-3.8322892334705386E-6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3349,7 +3317,7 @@
         <v>-6.779847365098985E-8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3375,7 +3343,7 @@
         <v>-3.4562014470240181E-23</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3401,7 +3369,7 @@
         <v>-6.5572979355191624E-8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3427,7 +3395,7 @@
         <v>-4.5499720921482549E-6</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3421,7 @@
         <v>-6.8437831193286734E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3479,7 +3447,7 @@
         <v>1.7414920778498531E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3505,7 +3473,7 @@
         <v>-6.7214206583653472E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3499,7 @@
         <v>1.219044590353462E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3557,7 +3525,7 @@
         <v>-1.091992938734566E-7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3551,7 @@
         <v>-4.4407710288140159E-6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3577,7 @@
         <v>-6.9228847935742872E-8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +3603,7 @@
         <v>-2.9632239263598388E-23</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3661,7 +3629,7 @@
         <v>-7.5984549103632013E-8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3687,7 +3655,7 @@
         <v>-2.6897622266061948E-6</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3681,7 @@
         <v>-7.2380153103442484E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3739,7 +3707,7 @@
         <v>-6.4760891708273971E-6</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3765,7 +3733,7 @@
         <v>-3.6755247969169438E-7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3759,7 @@
         <v>-4.5332463835057262E-7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3817,7 +3785,7 @@
         <v>-6.4554315300147357E-8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3843,7 +3811,7 @@
         <v>-2.62520902053266E-6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3869,7 +3837,7 @@
         <v>-7.9619673523740852E-8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3895,7 +3863,7 @@
         <v>3.2006285178360982E-23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3921,7 +3889,7 @@
         <v>-4.49190371246356E-8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3947,7 +3915,7 @@
         <v>9.8923928946916826E-7</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3973,7 +3941,7 @@
         <v>-8.2147309331479239E-6</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +3967,7 @@
         <v>1.7934765434737601E-5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4025,7 +3993,7 @@
         <v>-2.3312235395643699E-7</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4051,7 +4019,7 @@
         <v>1.2554328095039611E-6</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4077,7 +4045,7 @@
         <v>2.3741772041863189E-8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4103,7 +4071,7 @@
         <v>9.6549715057568694E-7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4129,7 +4097,7 @@
         <v>-7.9679390175406263E-8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4155,7 +4123,7 @@
         <v>-1.239069731591191E-23</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4181,7 +4149,7 @@
         <v>1.6520280825782738E-8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4207,7 +4175,7 @@
         <v>-2.2530525728504431E-6</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4233,7 +4201,7 @@
         <v>-2.8295000380897021E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4259,7 +4227,7 @@
         <v>3.3123433344951673E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4285,7 +4253,7 @@
         <v>-3.0359037897293988E-6</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4311,7 +4279,7 @@
         <v>2.3186405577377782E-6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4337,7 +4305,7 @@
         <v>-5.4073248542158251E-8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4363,7 +4331,7 @@
         <v>-2.1989790379628809E-6</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4389,7 +4357,7 @@
         <v>-5.9882336932029892E-8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4383,7 @@
         <v>-6.8471839641718414E-24</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4441,7 +4409,7 @@
         <v>-3.7625983082241182E-8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4467,7 +4435,7 @@
         <v>-3.5468177497054361E-6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4493,7 +4461,7 @@
         <v>-3.3925546653899533E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -4519,7 +4487,7 @@
         <v>5.1947439484008602E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +4513,7 @@
         <v>-3.2707543046634982E-6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4571,7 +4539,7 @@
         <v>3.6363234059902051E-6</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4597,7 +4565,7 @@
         <v>-8.5123611317051533E-8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4623,7 +4591,7 @@
         <v>-3.4616937897782031E-6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4649,7 +4617,7 @@
         <v>-5.8375950874074391E-8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4675,7 +4643,7 @@
         <v>-1.3643860780937681E-23</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -4701,7 +4669,7 @@
         <v>-5.9231826511784567E-8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4727,7 +4695,7 @@
         <v>-2.8951008456823058E-6</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +4721,7 @@
         <v>-6.6484190895470772E-5</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -4779,7 +4747,7 @@
         <v>1.0147539379584749E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4805,7 +4773,7 @@
         <v>-5.1748272673452327E-6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4799,7 @@
         <v>7.1032766065279856E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4857,7 +4825,7 @@
         <v>-6.9482430051652054E-8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4883,7 +4851,7 @@
         <v>-2.8256193702259849E-6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4909,7 +4877,7 @@
         <v>-1.094494707362065E-7</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -4935,7 +4903,7 @@
         <v>3.4129852242537359E-23</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4961,7 +4929,7 @@
         <v>-4.8348155224752712E-8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4987,7 +4955,7 @@
         <v>-3.1310157657148832E-6</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +4981,7 @@
         <v>-9.0531914942141084E-5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -5039,7 +5007,7 @@
         <v>1.402370854348054E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -5065,7 +5033,7 @@
         <v>-7.2591548875675513E-6</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -5091,7 +5059,7 @@
         <v>9.8165944930903898E-6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5117,7 +5085,7 @@
         <v>-7.5144406194597182E-8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5143,7 +5111,7 @@
         <v>-3.0558717017866319E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5169,7 +5137,7 @@
         <v>-1.097793195010283E-7</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -5195,7 +5163,7 @@
         <v>1.655889162020492E-24</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5221,7 +5189,7 @@
         <v>-5.2287910723566191E-8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5247,7 +5215,7 @@
         <v>-4.7961926888934187E-6</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -5273,7 +5241,7 @@
         <v>-1.15118199063119E-5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5267,7 @@
         <v>8.0533448061261433E-6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5325,7 +5293,7 @@
         <v>-2.0688840226896789E-6</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5319,7 @@
         <v>5.6373416135460932E-7</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -5377,7 +5345,7 @@
         <v>-1.151086507674391E-7</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -5403,7 +5371,7 @@
         <v>-4.6810842419392518E-6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -5429,7 +5397,7 @@
         <v>-3.9811866133566518E-8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -5455,7 +5423,7 @@
         <v>-3.1180534202298778E-23</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -5481,7 +5449,7 @@
         <v>-8.0096415617465632E-8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5475,7 @@
         <v>1.134197884213853E-6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -5533,7 +5501,7 @@
         <v>-1.094812074342278E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -5559,7 +5527,7 @@
         <v>4.1794376136826917E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -5585,7 +5553,7 @@
         <v>-3.8767821278260361E-7</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -5611,7 +5579,7 @@
         <v>2.9256006785479902E-7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5605,7 @@
         <v>2.7220746270744729E-8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5663,7 +5631,7 @@
         <v>1.1069772656070331E-6</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -5689,7 +5657,7 @@
         <v>-3.9912158436411463E-8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -5715,7 +5683,7 @@
         <v>-2.065584005896355E-24</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -5741,7 +5709,7 @@
         <v>1.894112002944027E-8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -5767,7 +5735,7 @@
         <v>-2.0398406059190339E-6</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -5793,7 +5761,7 @@
         <v>-3.8181873563707603E-5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -5819,7 +5787,7 @@
         <v>-1.073933600219528E-5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -5845,7 +5813,7 @@
         <v>-1.8579414081694289E-6</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -5871,7 +5839,7 @@
         <v>-7.5175374128135243E-7</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -5897,7 +5865,7 @@
         <v>-4.8956191528404507E-8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -5923,7 +5891,7 @@
         <v>-1.990884303058725E-6</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -5949,7 +5917,7 @@
         <v>-4.0641774393461933E-8</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -5975,7 +5943,7 @@
         <v>3.6281177904690482E-23</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6001,7 +5969,7 @@
         <v>-3.4065326367058967E-8</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -6027,7 +5995,7 @@
         <v>-6.8060086583149044E-6</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6053,7 +6021,7 @@
         <v>-5.2821048589309728E-5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -6079,7 +6047,7 @@
         <v>5.7329940903298043E-5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -6105,7 +6073,7 @@
         <v>-4.2155559831062942E-6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -6131,7 +6099,7 @@
         <v>4.013095977282609E-6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -6157,7 +6125,7 @@
         <v>-1.633441857366051E-7</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -6183,7 +6151,7 @@
         <v>-6.6426651274668017E-6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -6209,7 +6177,7 @@
         <v>-3.9757028594974649E-8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -6235,7 +6203,7 @@
         <v>2.9543006542520599E-23</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -6261,7 +6229,7 @@
         <v>-1.136603692778303E-7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -6287,7 +6255,7 @@
         <v>-9.2020157134671716E-6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +6281,7 @@
         <v>-7.9919494017182487E-5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -6339,7 +6307,7 @@
         <v>5.9469659269055257E-5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -6365,7 +6333,7 @@
         <v>-6.1857700099007663E-6</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -6391,7 +6359,7 @@
         <v>4.162873938219421E-6</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -6417,7 +6385,7 @@
         <v>-2.2084839518842661E-7</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -6443,7 +6411,7 @@
         <v>-8.9811667744615411E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -6469,7 +6437,7 @@
         <v>-7.9903560713363674E-8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -6495,7 +6463,7 @@
         <v>-1.653637543445511E-24</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -6521,7 +6489,7 @@
         <v>-1.536736616105245E-7</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -6547,7 +6515,7 @@
         <v>-1.0707506560015E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6541,7 @@
         <v>-1.020489013062931E-4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -6599,7 +6567,7 @@
         <v>9.1396338320502395E-5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -6625,7 +6593,7 @@
         <v>-7.6086348224926494E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -6651,7 +6619,7 @@
         <v>6.3977406675403181E-6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -6677,7 +6645,7 @@
         <v>-2.5698011165030912E-7</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -6703,7 +6671,7 @@
         <v>-1.045052342960419E-5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -6729,7 +6697,7 @@
         <v>-7.9945758262909698E-8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -6755,7 +6723,7 @@
         <v>4.0762159208914722E-23</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -6781,7 +6749,7 @@
         <v>-1.788153940580193E-7</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -6807,7 +6775,7 @@
         <v>2.1737266128013929E-8</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -6833,7 +6801,7 @@
         <v>-2.3018119247670798E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -6859,7 +6827,7 @@
         <v>-2.8050714368436319E-6</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -6885,7 +6853,7 @@
         <v>-3.8622387314802599E-7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -6911,7 +6879,7 @@
         <v>-1.382656598340265E-6</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -6937,7 +6905,7 @@
         <v>5.2169386018859606E-10</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -6963,7 +6931,7 @@
         <v>2.1215582423530399E-8</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -6989,7 +6957,7 @@
         <v>-9.338155831344758E-8</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +6983,7 @@
         <v>1.5027185538020401E-23</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -7041,7 +7009,7 @@
         <v>3.6301269251212209E-10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -7067,7 +7035,7 @@
         <v>2.089554942021752E-7</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -7093,7 +7061,7 @@
         <v>1.298806134129137E-5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -7119,7 +7087,7 @@
         <v>2.345180682439355E-5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -7145,7 +7113,7 @@
         <v>3.1187128844948678E-7</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -7171,7 +7139,7 @@
         <v>3.0776644965992421E-6</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -7197,7 +7165,7 @@
         <v>5.0149325378747173E-9</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -7223,7 +7191,7 @@
         <v>2.0394055963416129E-7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -7249,7 +7217,7 @@
         <v>-9.3177162327974816E-8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -7275,7 +7243,7 @@
         <v>8.3477073952735423E-24</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -7301,7 +7269,7 @@
         <v>3.48955613256654E-9</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -7327,7 +7295,7 @@
         <v>9.8785737186732762E-8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -7353,7 +7321,7 @@
         <v>9.8430110765835138E-6</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -7379,7 +7347,7 @@
         <v>1.14228348595234E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -7405,7 +7373,7 @@
         <v>2.4341424984479699E-8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -7431,7 +7399,7 @@
         <v>2.3338208403607748E-6</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -7457,7 +7425,7 @@
         <v>2.3708575584605281E-9</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -7483,7 +7451,7 @@
         <v>9.6414808860023519E-8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -7509,7 +7477,7 @@
         <v>-1.7620181195762851E-7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -7535,7 +7503,7 @@
         <v>-6.2188562320615818E-24</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -7561,7 +7529,7 @@
         <v>1.649721079021168E-9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -7587,7 +7555,7 @@
         <v>3.2619680317309271E-7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -7613,7 +7581,7 @@
         <v>1.44529668905042E-5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -7639,7 +7607,7 @@
         <v>1.4995622138879489E-5</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -7665,7 +7633,7 @@
         <v>3.3167191414799927E-7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -7691,7 +7659,7 @@
         <v>3.9168721366320148E-6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -7717,7 +7685,7 @@
         <v>7.8287216472718226E-9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -7743,7 +7711,7 @@
         <v>3.183680841987458E-7</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -7769,7 +7737,7 @@
         <v>-1.7456529305683369E-7</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -7795,7 +7763,7 @@
         <v>-1.8608369873504869E-23</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -7821,7 +7789,7 @@
         <v>5.4474882571273952E-9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -7847,7 +7815,7 @@
         <v>2.101073398586126E-7</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -7873,7 +7841,7 @@
         <v>-3.0296972507802979E-5</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -7899,7 +7867,7 @@
         <v>2.545493006728157E-5</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -7925,7 +7893,7 @@
         <v>-5.4021243179439908E-7</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -7951,7 +7919,7 @@
         <v>1.7095658895429381E-6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -7977,7 +7945,7 @@
         <v>5.0425749613755336E-9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -8003,7 +7971,7 @@
         <v>2.0506484794850899E-7</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -8029,7 +7997,7 @@
         <v>-3.0111315475668252E-7</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -8055,7 +8023,7 @@
         <v>5.9704142548801357E-24</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -8081,7 +8049,7 @@
         <v>3.508792439724787E-9</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -8107,7 +8075,7 @@
         <v>3.2561724475639151E-7</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -8133,7 +8101,7 @@
         <v>-4.5286056232962642E-5</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -8159,7 +8127,7 @@
         <v>2.9940565942580121E-5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -8185,7 +8153,7 @@
         <v>-7.835277179640793E-7</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -8211,7 +8179,7 @@
         <v>3.174102094838937E-6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -8237,7 +8205,7 @@
         <v>7.8148114512430815E-9</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -8263,7 +8231,7 @@
         <v>3.1780229449837588E-7</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -8289,7 +8257,7 @@
         <v>-3.0498222213191451E-7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -8315,7 +8283,7 @@
         <v>3.9916322886191531E-23</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -8341,7 +8309,7 @@
         <v>5.4378073700499343E-9</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8335,7 @@
         <v>1.2107070880571509E-7</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -8393,7 +8361,7 @@
         <v>-2.820696220627656E-5</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -8419,7 +8387,7 @@
         <v>6.4859007923818606E-6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -8445,7 +8413,7 @@
         <v>-2.6768713544928758E-7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -8471,7 +8439,7 @@
         <v>1.8276841637957959E-7</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -8497,7 +8465,7 @@
         <v>2.905697784941886E-9</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -8523,7 +8491,7 @@
         <v>1.181649993060435E-7</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -8549,7 +8517,7 @@
         <v>-2.5368531098238201E-7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -8575,7 +8543,7 @@
         <v>6.1061139012635937E-23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -8601,7 +8569,7 @@
         <v>2.0218796938205981E-9</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -8627,7 +8595,7 @@
         <v>8.3403274814973243E-11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -8653,7 +8621,7 @@
         <v>2.263642465078339E-5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -8679,7 +8647,7 @@
         <v>2.195153444985328E-5</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -8705,7 +8673,7 @@
         <v>4.7741794065727866E-7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -8731,7 +8699,7 @@
         <v>3.293820350128157E-6</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -8757,7 +8725,7 @@
         <v>2.0040860634521022E-12</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -8783,7 +8751,7 @@
         <v>8.1345262684368617E-11</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -8809,7 +8777,7 @@
         <v>-2.5277175168958567E-7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -8835,7 +8803,7 @@
         <v>3.7205982611881233E-23</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -8861,7 +8829,7 @@
         <v>1.391820671642094E-12</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -8887,7 +8855,7 @@
         <v>-8.9369671309920141E-8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -8913,7 +8881,7 @@
         <v>3.1444892359911549E-5</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -8939,7 +8907,7 @@
         <v>2.372334726721617E-5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -8965,7 +8933,7 @@
         <v>2.530568419981172E-7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -8991,7 +8959,7 @@
         <v>2.45110709165801E-6</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -9017,7 +8985,7 @@
         <v>-2.1448691918020921E-9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -9043,7 +9011,7 @@
         <v>-8.7224724354480383E-8</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -9069,7 +9037,7 @@
         <v>-5.898294755316301E-7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -9095,7 +9063,7 @@
         <v>8.8771962741321344E-23</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -9121,7 +9089,7 @@
         <v>-1.492474577795208E-9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -9147,7 +9115,7 @@
         <v>1.672588808236303E-8</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -9173,7 +9141,7 @@
         <v>2.2049154372161161E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -9199,7 +9167,7 @@
         <v>1.8756038482981319E-5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -9225,7 +9193,7 @@
         <v>6.0707592448791606E-7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -9251,7 +9219,7 @@
         <v>3.064300786043594E-6</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -9277,7 +9245,7 @@
         <v>4.014209145873855E-10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -9303,7 +9271,7 @@
         <v>1.6324535464640029E-8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -9329,7 +9297,7 @@
         <v>-5.8161437538375698E-7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -9355,7 +9323,7 @@
         <v>-8.4927922156125909E-23</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -9381,7 +9349,7 @@
         <v>2.7932104199627468E-10</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -9407,7 +9375,7 @@
         <v>7.0646811779226305E-8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -9433,7 +9401,7 @@
         <v>-5.388199822807913E-5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -9459,7 +9427,7 @@
         <v>1.020188450242375E-5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +9453,7 @@
         <v>-4.3248167655826799E-7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -9511,7 +9479,7 @@
         <v>-1.7618813073401681E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -9537,7 +9505,7 @@
         <v>1.6955211330076409E-9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -9563,7 +9531,7 @@
         <v>6.8951259056641682E-8</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -9589,7 +9557,7 @@
         <v>-9.6424542393531489E-7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -9615,7 +9583,7 @@
         <v>-1.5288121652156309E-23</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -9641,7 +9609,7 @@
         <v>1.1798058096706899E-9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -9667,7 +9635,7 @@
         <v>1.787929511525556E-7</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -9693,7 +9661,7 @@
         <v>-7.3090882301042481E-5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -9719,7 +9687,7 @@
         <v>5.1486859649449667E-6</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -9745,7 +9713,7 @@
         <v>-5.929632070224554E-7</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +9739,7 @@
         <v>-2.297089112262304E-6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -9797,7 +9765,7 @@
         <v>4.2910291931315409E-9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>8</v>
       </c>
@@ -9823,7 +9791,7 @@
         <v>1.7450171628023819E-7</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -9849,7 +9817,7 @@
         <v>-9.7133964380463285E-7</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -9875,7 +9843,7 @@
         <v>4.7828038761542329E-23</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -9901,7 +9869,7 @@
         <v>2.985844264117237E-9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -9927,7 +9895,7 @@
         <v>-7.3863911873045448E-8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -9953,7 +9921,7 @@
         <v>-2.7073645750790422E-6</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -9979,7 +9947,7 @@
         <v>1.536629525032497E-5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -10005,7 +9973,7 @@
         <v>-7.0217671886063893E-8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -10031,7 +9999,7 @@
         <v>4.3025617866284614E-6</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -10057,7 +10025,7 @@
         <v>-1.7727338058678451E-9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -10083,7 +10051,7 @@
         <v>-7.2091189120529312E-8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -10109,7 +10077,7 @@
         <v>-1.7527319359429959E-7</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -10135,7 +10103,7 @@
         <v>3.4669886036768339E-8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -10161,7 +10129,7 @@
         <v>-1.23352726445723E-9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -10187,7 +10155,7 @@
         <v>6.7563801704010602E-8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -10213,7 +10181,7 @@
         <v>5.1754708764710791E-7</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -10239,7 +10207,7 @@
         <v>1.662230220151455E-5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -10265,7 +10233,7 @@
         <v>1.7261494545841611E-7</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -10291,7 +10259,7 @@
         <v>4.6542440731884533E-6</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -10317,7 +10285,7 @@
         <v>1.621532589057832E-9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -10343,7 +10311,7 @@
         <v>6.5942256814643994E-8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -10369,7 +10337,7 @@
         <v>-1.751138552693174E-7</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -10395,7 +10363,7 @@
         <v>6.285482283014477E-8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -10421,7 +10389,7 @@
         <v>1.1283147243187959E-9</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -10447,7 +10415,7 @@
         <v>-4.7548921512024133E-8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -10473,7 +10441,7 @@
         <v>1.9386949971015111E-7</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -10499,7 +10467,7 @@
         <v>1.287599995763343E-5</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -10525,7 +10493,7 @@
         <v>2.209952226314549E-7</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -10551,7 +10519,7 @@
         <v>3.60528134419218E-6</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -10577,7 +10545,7 @@
         <v>-1.141172908920507E-9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -10603,7 +10571,7 @@
         <v>-4.6407711104164748E-8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -10629,7 +10597,7 @@
         <v>-4.6150810693924801E-7</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -10655,7 +10623,7 @@
         <v>1.100102325701138E-7</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -10681,7 +10649,7 @@
         <v>-7.9406707933472836E-10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -10707,7 +10675,7 @@
         <v>-1.1988485388911011E-8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -10733,7 +10701,7 @@
         <v>-2.5699845775241489E-6</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -10759,7 +10727,7 @@
         <v>3.8458686295866433E-5</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -10785,7 +10753,7 @@
         <v>6.1141148004535429E-7</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -10811,7 +10779,7 @@
         <v>1.076843141685396E-5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -10837,7 +10805,7 @@
         <v>-2.877235246053558E-10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -10863,7 +10831,7 @@
         <v>-1.170077077654758E-8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -10889,7 +10857,7 @@
         <v>-4.6071416182623628E-7</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -10915,7 +10883,7 @@
         <v>1.6147100304070709E-7</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -10941,7 +10909,7 @@
         <v>-2.002074256851536E-10</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -10967,7 +10935,7 @@
         <v>-7.7068992643883951E-8</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -10993,7 +10961,7 @@
         <v>-5.7552294132852157E-6</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -11019,7 +10987,7 @@
         <v>5.2290871997667123E-5</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>8</v>
       </c>
@@ -11045,7 +11013,7 @@
         <v>-4.220363968006787E-8</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -11071,7 +11039,7 @@
         <v>1.464144352076194E-5</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -11097,7 +11065,7 @@
         <v>-1.8496566769706451E-9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -11123,7 +11091,7 @@
         <v>-7.5219388522693482E-8</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -11149,7 +11117,7 @@
         <v>-7.2800429546185284E-7</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -11175,7 +11143,7 @@
         <v>-3.7582734153348781E-7</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -11201,7 +11169,7 @@
         <v>-1.2870526997832461E-9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -11227,7 +11195,7 @@
         <v>-6.7165582807812556E-8</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -11253,7 +11221,7 @@
         <v>-7.2884283692973707E-6</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -11279,7 +11247,7 @@
         <v>7.4778160301186152E-5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -11305,7 +11273,7 @@
         <v>-1.866851306683585E-7</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -11331,7 +11299,7 @@
         <v>2.0937882067109301E-5</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -11357,7 +11325,7 @@
         <v>-1.6119735528032719E-9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -11383,7 +11351,7 @@
         <v>-6.5553724768106044E-8</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -11409,7 +11377,7 @@
         <v>-7.3458278668858617E-7</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -11435,7 +11403,7 @@
         <v>1.753543570212791E-7</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -11461,7 +11429,7 @@
         <v>-1.1216675710582159E-9</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -11487,7 +11455,7 @@
         <v>7.1069244385092659E-7</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -11513,7 +11481,7 @@
         <v>1.506260728665583E-6</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -11539,7 +11507,7 @@
         <v>2.7392508221105682E-6</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -11565,7 +11533,7 @@
         <v>1.17529542411142E-8</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -11591,7 +11559,7 @@
         <v>6.8481270552757682E-7</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -11617,7 +11585,7 @@
         <v>6.5383710881215968E-7</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -11643,7 +11611,7 @@
         <v>5.6855388604608101E-8</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -11669,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -11695,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -11721,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -11747,7 +11715,7 @@
         <v>7.1069244385092659E-7</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -11773,7 +11741,7 @@
         <v>1.506260728665583E-6</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -11799,7 +11767,7 @@
         <v>2.7392508221105682E-6</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -11825,7 +11793,7 @@
         <v>1.17529542411142E-8</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -11851,7 +11819,7 @@
         <v>6.8481270552757682E-7</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -11877,7 +11845,7 @@
         <v>6.5383710881215968E-7</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -11903,7 +11871,7 @@
         <v>5.6855388604608101E-8</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -11929,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -11955,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -11981,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -12007,7 +11975,7 @@
         <v>3.4869069674635219E-7</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -12033,7 +12001,7 @@
         <v>1.3159393992251751E-6</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -12059,7 +12027,7 @@
         <v>8.7356864420151259E-7</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -12085,7 +12053,7 @@
         <v>1.1777864590022041E-8</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -12111,7 +12079,7 @@
         <v>2.183921610503723E-7</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -12137,7 +12105,7 @@
         <v>3.2079533159778981E-7</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -12163,7 +12131,7 @@
         <v>2.7895260352000231E-8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -12189,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -12215,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -12241,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -12267,7 +12235,7 @@
         <v>1.1223832969903509E-6</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -12293,7 +12261,7 @@
         <v>2.3788114671763749E-6</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -12319,7 +12287,7 @@
         <v>4.3260491620194131E-6</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -12345,7 +12313,7 @@
         <v>1.856123581541441E-8</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -12371,7 +12339,7 @@
         <v>1.081512290504827E-6</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -12397,7 +12365,7 @@
         <v>1.0325932205086821E-6</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -12423,7 +12391,7 @@
         <v>8.9790658127177487E-8</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -12449,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -12475,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -12501,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -12527,7 +12495,7 @@
         <v>1.1223832969903509E-6</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -12553,7 +12521,7 @@
         <v>2.3788114671763749E-6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -12579,7 +12547,7 @@
         <v>4.3260491620194131E-6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -12605,7 +12573,7 @@
         <v>1.856123581541441E-8</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -12631,7 +12599,7 @@
         <v>1.081512290504827E-6</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -12657,7 +12625,7 @@
         <v>1.0325932205086821E-6</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -12683,7 +12651,7 @@
         <v>8.9790658127177487E-8</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -12709,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -12735,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -12761,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -12787,7 +12755,7 @@
         <v>6.0284912715991472E-7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -12813,7 +12781,7 @@
         <v>2.2751225383136371E-6</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -12839,7 +12807,7 @@
         <v>1.5103076189951651E-6</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -12865,7 +12833,7 @@
         <v>2.036267256026227E-8</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -12891,7 +12859,7 @@
         <v>3.7757690474878921E-7</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -12917,7 +12885,7 @@
         <v>5.5462107286726374E-7</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -12943,7 +12911,7 @@
         <v>4.8227922735557722E-8</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -12969,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -12995,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -13021,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -13047,7 +13015,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -13073,7 +13041,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -13099,7 +13067,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>9</v>
       </c>
@@ -13125,7 +13093,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>9</v>
       </c>
@@ -13151,7 +13119,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -13177,7 +13145,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -13203,7 +13171,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -13229,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -13255,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -13281,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -13307,7 +13275,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -13333,7 +13301,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -13359,7 +13327,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -13385,7 +13353,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -13411,7 +13379,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -13437,7 +13405,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -13463,7 +13431,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -13489,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -13515,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -13541,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -13567,7 +13535,7 @@
         <v>8.7796057383255358E-7</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -13593,7 +13561,7 @@
         <v>3.3133809242398901E-6</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -13619,7 +13587,7 @@
         <v>2.1995408956796538E-6</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -13645,7 +13613,7 @@
         <v>2.9655231815795901E-8</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -13671,7 +13639,7 @@
         <v>5.4988522391990403E-7</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -13697,7 +13665,7 @@
         <v>8.0772378638846467E-7</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -13723,7 +13691,7 @@
         <v>7.0236837718271644E-8</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -13749,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -13775,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>9</v>
       </c>
@@ -13801,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -13827,7 +13795,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -13853,7 +13821,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -13879,7 +13847,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -13905,7 +13873,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -13931,7 +13899,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -13957,7 +13925,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -13983,7 +13951,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -14009,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -14035,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -14061,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -14087,7 +14055,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -14113,7 +14081,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -14139,7 +14107,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -14165,7 +14133,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -14191,7 +14159,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -14217,7 +14185,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -14243,7 +14211,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -14269,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -14295,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -14321,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -14347,7 +14315,7 @@
         <v>8.7796057383255358E-7</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>9</v>
       </c>
@@ -14373,7 +14341,7 @@
         <v>3.3133809242398901E-6</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -14399,7 +14367,7 @@
         <v>2.1995408956796538E-6</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -14425,7 +14393,7 @@
         <v>2.9655231815795901E-8</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -14451,7 +14419,7 @@
         <v>5.4988522391990403E-7</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -14477,7 +14445,7 @@
         <v>8.0772378638846467E-7</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -14503,7 +14471,7 @@
         <v>7.0236837718271644E-8</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -14529,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -14555,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -14581,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -14607,7 +14575,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -14633,7 +14601,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -14659,7 +14627,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -14685,7 +14653,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -14711,7 +14679,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -14737,7 +14705,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -14763,7 +14731,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>9</v>
       </c>
@@ -14789,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -14815,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -14841,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -14867,7 +14835,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -14893,7 +14861,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -14919,7 +14887,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -14945,7 +14913,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>9</v>
       </c>
@@ -14971,7 +14939,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -14997,7 +14965,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -15023,7 +14991,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -15049,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -15075,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -15101,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -15127,7 +15095,7 @@
         <v>2.0283317355797798E-6</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -15153,7 +15121,7 @@
         <v>7.6548244114928941E-6</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -15179,7 +15147,7 @@
         <v>5.0815475946237212E-6</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -15205,7 +15173,7 @@
         <v>6.8511762874992627E-8</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>9</v>
       </c>
@@ -15231,7 +15199,7 @@
         <v>1.270386898655924E-6</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -15257,7 +15225,7 @@
         <v>1.8660652436810141E-6</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -15283,7 +15251,7 @@
         <v>1.6226649387487251E-7</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -15309,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>9</v>
       </c>
@@ -15335,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -15361,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -15387,7 +15355,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -15413,7 +15381,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>9</v>
       </c>
@@ -15439,7 +15407,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -15465,7 +15433,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>9</v>
       </c>
@@ -15491,7 +15459,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -15517,7 +15485,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>9</v>
       </c>
@@ -15543,7 +15511,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>9</v>
       </c>
@@ -15569,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -15595,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>9</v>
       </c>
@@ -15621,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -15647,7 +15615,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>9</v>
       </c>
@@ -15673,7 +15641,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -15699,7 +15667,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -15725,7 +15693,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -15751,7 +15719,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>9</v>
       </c>
@@ -15777,7 +15745,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -15803,7 +15771,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>9</v>
       </c>
@@ -15829,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -15855,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>9</v>
       </c>
@@ -15881,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -15907,7 +15875,7 @@
         <v>2.0283317355797798E-6</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>9</v>
       </c>
@@ -15933,7 +15901,7 @@
         <v>7.6548244114928941E-6</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -15959,7 +15927,7 @@
         <v>5.0815475946237212E-6</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>9</v>
       </c>
@@ -15985,7 +15953,7 @@
         <v>6.8511762874992627E-8</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16011,7 +15979,7 @@
         <v>1.270386898655924E-6</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>9</v>
       </c>
@@ -16037,7 +16005,7 @@
         <v>1.8660652436810141E-6</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>9</v>
       </c>
@@ -16063,7 +16031,7 @@
         <v>1.6226649387487251E-7</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>9</v>
       </c>
@@ -16089,7 +16057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -16115,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>9</v>
       </c>
@@ -16141,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -16167,7 +16135,7 @@
         <v>7.1069244385092659E-7</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>9</v>
       </c>
@@ -16193,7 +16161,7 @@
         <v>1.506260728665583E-6</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>9</v>
       </c>
@@ -16219,7 +16187,7 @@
         <v>2.7392508221105682E-6</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -16245,7 +16213,7 @@
         <v>1.17529542411142E-8</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -16271,7 +16239,7 @@
         <v>6.8481270552757682E-7</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -16297,7 +16265,7 @@
         <v>6.5383710881215968E-7</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>9</v>
       </c>
@@ -16323,7 +16291,7 @@
         <v>5.6855388604608101E-8</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -16349,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>9</v>
       </c>
@@ -16375,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -16401,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -16427,7 +16395,7 @@
         <v>1.1223832969903509E-6</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -16453,7 +16421,7 @@
         <v>2.3788114671763749E-6</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -16479,7 +16447,7 @@
         <v>4.3260491620194131E-6</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -16505,7 +16473,7 @@
         <v>1.856123581541441E-8</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -16531,7 +16499,7 @@
         <v>1.081512290504827E-6</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -16557,7 +16525,7 @@
         <v>1.0325932205086821E-6</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>9</v>
       </c>
@@ -16583,7 +16551,7 @@
         <v>8.9790658127177487E-8</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -16609,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -16635,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>9</v>
       </c>
@@ -16661,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -16687,7 +16655,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -16713,7 +16681,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -16739,7 +16707,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -16765,7 +16733,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -16791,7 +16759,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -16817,7 +16785,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -16843,7 +16811,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -16869,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>9</v>
       </c>
@@ -16895,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -16921,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -16947,7 +16915,7 @@
         <v>1.556575958604896E-6</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>9</v>
       </c>
@@ -16973,7 +16941,7 @@
         <v>3.299052560850165E-6</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -16999,7 +16967,7 @@
         <v>5.9995741390098946E-6</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>9</v>
       </c>
@@ -17025,7 +16993,7 @@
         <v>2.5741627809733679E-8</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17051,7 +17019,7 @@
         <v>1.499893534752472E-6</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -17077,7 +17045,7 @@
         <v>1.43204939969259E-6</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17103,7 +17071,7 @@
         <v>1.2452611157431509E-7</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>9</v>
       </c>
@@ -17129,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17155,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>9</v>
       </c>
@@ -17181,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -17207,7 +17175,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>9</v>
       </c>
@@ -17233,7 +17201,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -17259,7 +17227,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>9</v>
       </c>
@@ -17285,7 +17253,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -17311,7 +17279,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>9</v>
       </c>
@@ -17337,7 +17305,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -17363,7 +17331,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -17389,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -17415,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>9</v>
       </c>
@@ -17441,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>9</v>
       </c>
@@ -17467,7 +17435,7 @@
         <v>4.1232634955252581E-6</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>9</v>
       </c>
@@ -17493,7 +17461,7 @@
         <v>8.7389702292917021E-6</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -17519,7 +17487,7 @@
         <v>1.589247519950483E-5</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>9</v>
       </c>
@@ -17545,7 +17513,7 @@
         <v>6.8187810194758683E-8</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -17571,7 +17539,7 @@
         <v>3.9731187998761991E-6</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>9</v>
       </c>
@@ -17597,7 +17565,7 @@
         <v>3.7934016476820429E-6</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>9</v>
       </c>
@@ -17623,7 +17591,7 @@
         <v>3.2986106852228981E-7</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -17649,7 +17617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>9</v>
       </c>
@@ -17675,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -17701,8 +17669,2868 @@
         <v>0</v>
       </c>
     </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>8</v>
+      </c>
+      <c r="B662">
+        <v>0</v>
+      </c>
+      <c r="C662" t="s">
+        <v>26</v>
+      </c>
+      <c r="D662" t="s">
+        <v>10</v>
+      </c>
+      <c r="E662">
+        <v>7.6953348970176698</v>
+      </c>
+      <c r="F662">
+        <v>-0.2798437321423306</v>
+      </c>
+      <c r="G662">
+        <v>4.0596357341107598E-3</v>
+      </c>
+      <c r="H662">
+        <v>-2.0567418139648419E-5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>8</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663" t="s">
+        <v>26</v>
+      </c>
+      <c r="D663" t="s">
+        <v>11</v>
+      </c>
+      <c r="E663">
+        <v>17.744550594310368</v>
+      </c>
+      <c r="F663">
+        <v>-0.65212446893046072</v>
+      </c>
+      <c r="G663">
+        <v>9.5980361850798012E-3</v>
+      </c>
+      <c r="H663">
+        <v>-4.4828366981353012E-5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>8</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664" t="s">
+        <v>26</v>
+      </c>
+      <c r="D664" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664">
+        <v>-2.6059512286479531</v>
+      </c>
+      <c r="F664">
+        <v>1.11962019461962</v>
+      </c>
+      <c r="G664">
+        <v>-2.2551017078985849E-2</v>
+      </c>
+      <c r="H664">
+        <v>1.3708561732673951E-4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>8</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665" t="s">
+        <v>26</v>
+      </c>
+      <c r="D665" t="s">
+        <v>13</v>
+      </c>
+      <c r="E665">
+        <v>2.125538098805495</v>
+      </c>
+      <c r="F665">
+        <v>-7.2579522047167611E-2</v>
+      </c>
+      <c r="G665">
+        <v>1.0511507722779641E-3</v>
+      </c>
+      <c r="H665">
+        <v>-4.953140939553849E-6</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>8</v>
+      </c>
+      <c r="B666">
+        <v>0</v>
+      </c>
+      <c r="C666" t="s">
+        <v>26</v>
+      </c>
+      <c r="D666" t="s">
+        <v>14</v>
+      </c>
+      <c r="E666">
+        <v>-0.18241714947520149</v>
+      </c>
+      <c r="F666">
+        <v>7.8373449757343519E-2</v>
+      </c>
+      <c r="G666">
+        <v>-1.578571878826499E-3</v>
+      </c>
+      <c r="H666">
+        <v>9.595997244472524E-6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>8</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667" t="s">
+        <v>26</v>
+      </c>
+      <c r="D667" t="s">
+        <v>15</v>
+      </c>
+      <c r="E667">
+        <v>0.18468803735462319</v>
+      </c>
+      <c r="F667">
+        <v>-6.7162496406795681E-3</v>
+      </c>
+      <c r="G667">
+        <v>9.7431259766816967E-5</v>
+      </c>
+      <c r="H667">
+        <v>-4.9361805032157592E-7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>8</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668" t="s">
+        <v>26</v>
+      </c>
+      <c r="D668" t="s">
+        <v>16</v>
+      </c>
+      <c r="E668">
+        <v>7.5106466864692338</v>
+      </c>
+      <c r="F668">
+        <v>-0.2731274727825424</v>
+      </c>
+      <c r="G668">
+        <v>3.9622043281726006E-3</v>
+      </c>
+      <c r="H668">
+        <v>-2.007379941351287E-5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>8</v>
+      </c>
+      <c r="B669">
+        <v>0</v>
+      </c>
+      <c r="C669" t="s">
+        <v>26</v>
+      </c>
+      <c r="D669" t="s">
+        <v>17</v>
+      </c>
+      <c r="E669">
+        <v>2.010410819476937E-2</v>
+      </c>
+      <c r="F669">
+        <v>-3.645048367821326E-4</v>
+      </c>
+      <c r="G669">
+        <v>8.5801902771353862E-6</v>
+      </c>
+      <c r="H669">
+        <v>-6.8868621452864598E-8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>8</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+      <c r="C670" t="s">
+        <v>26</v>
+      </c>
+      <c r="D670" t="s">
+        <v>18</v>
+      </c>
+      <c r="E670">
+        <v>2.0000000949948961E-3</v>
+      </c>
+      <c r="F670">
+        <v>2.6496224412628588E-19</v>
+      </c>
+      <c r="G670">
+        <v>-5.576582007869523E-21</v>
+      </c>
+      <c r="H670">
+        <v>4.2128936867573248E-23</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>8</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671" t="s">
+        <v>26</v>
+      </c>
+      <c r="D671" t="s">
+        <v>19</v>
+      </c>
+      <c r="E671">
+        <v>0.12851210580914521</v>
+      </c>
+      <c r="F671">
+        <v>-4.6733911302484612E-3</v>
+      </c>
+      <c r="G671">
+        <v>6.7795931759677373E-5</v>
+      </c>
+      <c r="H671">
+        <v>-3.4347597081204148E-7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>8</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+      <c r="C672" t="s">
+        <v>26</v>
+      </c>
+      <c r="D672" t="s">
+        <v>10</v>
+      </c>
+      <c r="E672">
+        <v>2.3814409807398769</v>
+      </c>
+      <c r="F672">
+        <v>-7.1799714152122024E-2</v>
+      </c>
+      <c r="G672">
+        <v>9.3140976339304302E-4</v>
+      </c>
+      <c r="H672">
+        <v>-4.4142154262791574E-6</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>8</v>
+      </c>
+      <c r="B673">
+        <v>1</v>
+      </c>
+      <c r="C673" t="s">
+        <v>26</v>
+      </c>
+      <c r="D673" t="s">
+        <v>11</v>
+      </c>
+      <c r="E673">
+        <v>11.318185352622541</v>
+      </c>
+      <c r="F673">
+        <v>-0.48759512409194578</v>
+      </c>
+      <c r="G673">
+        <v>7.7581214096816434E-3</v>
+      </c>
+      <c r="H673">
+        <v>-3.782524789736519E-5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>8</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+      <c r="C674" t="s">
+        <v>26</v>
+      </c>
+      <c r="D674" t="s">
+        <v>12</v>
+      </c>
+      <c r="E674">
+        <v>-3.241630319797836</v>
+      </c>
+      <c r="F674">
+        <v>0.7629702287092569</v>
+      </c>
+      <c r="G674">
+        <v>-1.516060240801085E-2</v>
+      </c>
+      <c r="H674">
+        <v>9.1373032771984691E-5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>8</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+      <c r="C675" t="s">
+        <v>26</v>
+      </c>
+      <c r="D675" t="s">
+        <v>13</v>
+      </c>
+      <c r="E675">
+        <v>1.846694146640496</v>
+      </c>
+      <c r="F675">
+        <v>-7.059742818257464E-2</v>
+      </c>
+      <c r="G675">
+        <v>1.0521704028684761E-3</v>
+      </c>
+      <c r="H675">
+        <v>-5.0501912662104121E-6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>8</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+      <c r="C676" t="s">
+        <v>26</v>
+      </c>
+      <c r="D676" t="s">
+        <v>14</v>
+      </c>
+      <c r="E676">
+        <v>-0.22691422530008801</v>
+      </c>
+      <c r="F676">
+        <v>5.340792259187617E-2</v>
+      </c>
+      <c r="G676">
+        <v>-1.0612422989055991E-3</v>
+      </c>
+      <c r="H676">
+        <v>6.3961131121087461E-6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>8</v>
+      </c>
+      <c r="B677">
+        <v>1</v>
+      </c>
+      <c r="C677" t="s">
+        <v>26</v>
+      </c>
+      <c r="D677" t="s">
+        <v>15</v>
+      </c>
+      <c r="E677">
+        <v>5.7154581660959998E-2</v>
+      </c>
+      <c r="F677">
+        <v>-1.7231929680346259E-3</v>
+      </c>
+      <c r="G677">
+        <v>2.2353830711639038E-5</v>
+      </c>
+      <c r="H677">
+        <v>-1.0594114817654419E-7</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>8</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+      <c r="C678" t="s">
+        <v>26</v>
+      </c>
+      <c r="D678" t="s">
+        <v>16</v>
+      </c>
+      <c r="E678">
+        <v>2.3242864889671662</v>
+      </c>
+      <c r="F678">
+        <v>-7.0076525271851431E-2</v>
+      </c>
+      <c r="G678">
+        <v>9.0905600329157274E-4</v>
+      </c>
+      <c r="H678">
+        <v>-4.3082746908080324E-6</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>8</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+      <c r="C679" t="s">
+        <v>26</v>
+      </c>
+      <c r="D679" t="s">
+        <v>17</v>
+      </c>
+      <c r="E679">
+        <v>2.0506487473259311E-2</v>
+      </c>
+      <c r="F679">
+        <v>-3.8882050204670879E-4</v>
+      </c>
+      <c r="G679">
+        <v>9.0341679149329214E-6</v>
+      </c>
+      <c r="H679">
+        <v>-7.1534198843735965E-8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>8</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+      <c r="C680" t="s">
+        <v>26</v>
+      </c>
+      <c r="D680" t="s">
+        <v>18</v>
+      </c>
+      <c r="E680">
+        <v>2.9000001959502671E-3</v>
+      </c>
+      <c r="F680">
+        <v>5.6920630635637804E-20</v>
+      </c>
+      <c r="G680">
+        <v>-1.5712414604963529E-22</v>
+      </c>
+      <c r="H680">
+        <v>9.2269941024218967E-25</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>8</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
+      <c r="C681" t="s">
+        <v>26</v>
+      </c>
+      <c r="D681" t="s">
+        <v>19</v>
+      </c>
+      <c r="E681">
+        <v>3.9770057899032943E-2</v>
+      </c>
+      <c r="F681">
+        <v>-1.1990548920586209E-3</v>
+      </c>
+      <c r="G681">
+        <v>1.5554537387070831E-5</v>
+      </c>
+      <c r="H681">
+        <v>-7.3717366703495831E-8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>8</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+      <c r="C682" t="s">
+        <v>26</v>
+      </c>
+      <c r="D682" t="s">
+        <v>10</v>
+      </c>
+      <c r="E682">
+        <v>1.4936429646182261</v>
+      </c>
+      <c r="F682">
+        <v>-4.2652840775640077E-2</v>
+      </c>
+      <c r="G682">
+        <v>5.3316993237221362E-4</v>
+      </c>
+      <c r="H682">
+        <v>-2.497622828223957E-6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>8</v>
+      </c>
+      <c r="B683">
+        <v>2</v>
+      </c>
+      <c r="C683" t="s">
+        <v>26</v>
+      </c>
+      <c r="D683" t="s">
+        <v>11</v>
+      </c>
+      <c r="E683">
+        <v>10.154772556150499</v>
+      </c>
+      <c r="F683">
+        <v>-0.48295935039328269</v>
+      </c>
+      <c r="G683">
+        <v>8.2775805727674356E-3</v>
+      </c>
+      <c r="H683">
+        <v>-4.308253714170923E-5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>8</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
+      </c>
+      <c r="C684" t="s">
+        <v>26</v>
+      </c>
+      <c r="D684" t="s">
+        <v>12</v>
+      </c>
+      <c r="E684">
+        <v>0.25265460091798592</v>
+      </c>
+      <c r="F684">
+        <v>0.60769206011082488</v>
+      </c>
+      <c r="G684">
+        <v>-1.239313205513619E-2</v>
+      </c>
+      <c r="H684">
+        <v>7.4739403429794214E-5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>8</v>
+      </c>
+      <c r="B685">
+        <v>2</v>
+      </c>
+      <c r="C685" t="s">
+        <v>26</v>
+      </c>
+      <c r="D685" t="s">
+        <v>13</v>
+      </c>
+      <c r="E685">
+        <v>1.0284428334525051</v>
+      </c>
+      <c r="F685">
+        <v>-4.8675449073881237E-2</v>
+      </c>
+      <c r="G685">
+        <v>8.5008270987222952E-4</v>
+      </c>
+      <c r="H685">
+        <v>-4.5202090062707831E-6</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>8</v>
+      </c>
+      <c r="B686">
+        <v>2</v>
+      </c>
+      <c r="C686" t="s">
+        <v>26</v>
+      </c>
+      <c r="D686" t="s">
+        <v>14</v>
+      </c>
+      <c r="E686">
+        <v>1.7686037775129591E-2</v>
+      </c>
+      <c r="F686">
+        <v>4.2538431210385523E-2</v>
+      </c>
+      <c r="G686">
+        <v>-8.6751900585523467E-4</v>
+      </c>
+      <c r="H686">
+        <v>5.2317569074171037E-6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>8</v>
+      </c>
+      <c r="B687">
+        <v>2</v>
+      </c>
+      <c r="C687" t="s">
+        <v>26</v>
+      </c>
+      <c r="D687" t="s">
+        <v>15</v>
+      </c>
+      <c r="E687">
+        <v>3.584742696268816E-2</v>
+      </c>
+      <c r="F687">
+        <v>-1.0236679546277621E-3</v>
+      </c>
+      <c r="G687">
+        <v>1.279607489550558E-5</v>
+      </c>
+      <c r="H687">
+        <v>-5.9942931274343156E-8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>8</v>
+      </c>
+      <c r="B688">
+        <v>2</v>
+      </c>
+      <c r="C688" t="s">
+        <v>26</v>
+      </c>
+      <c r="D688" t="s">
+        <v>16</v>
+      </c>
+      <c r="E688">
+        <v>1.4577956322752459</v>
+      </c>
+      <c r="F688">
+        <v>-4.1629180865477962E-2</v>
+      </c>
+      <c r="G688">
+        <v>5.2037404376209138E-4</v>
+      </c>
+      <c r="H688">
+        <v>-2.437681146958843E-6</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>8</v>
+      </c>
+      <c r="B689">
+        <v>2</v>
+      </c>
+      <c r="C689" t="s">
+        <v>26</v>
+      </c>
+      <c r="D689" t="s">
+        <v>17</v>
+      </c>
+      <c r="E689">
+        <v>2.0332084490519299E-2</v>
+      </c>
+      <c r="F689">
+        <v>-3.7914070257118491E-4</v>
+      </c>
+      <c r="G689">
+        <v>8.8611817025628727E-6</v>
+      </c>
+      <c r="H689">
+        <v>-7.0510069582798981E-8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>8</v>
+      </c>
+      <c r="B690">
+        <v>2</v>
+      </c>
+      <c r="C690" t="s">
+        <v>26</v>
+      </c>
+      <c r="D690" t="s">
+        <v>18</v>
+      </c>
+      <c r="E690">
+        <v>2.9000001959502701E-3</v>
+      </c>
+      <c r="F690">
+        <v>-1.4033187222933501E-19</v>
+      </c>
+      <c r="G690">
+        <v>4.2389149465903307E-21</v>
+      </c>
+      <c r="H690">
+        <v>-2.6590354329610609E-23</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>8</v>
+      </c>
+      <c r="B691">
+        <v>2</v>
+      </c>
+      <c r="C691" t="s">
+        <v>26</v>
+      </c>
+      <c r="D691" t="s">
+        <v>19</v>
+      </c>
+      <c r="E691">
+        <v>2.4943832929384929E-2</v>
+      </c>
+      <c r="F691">
+        <v>-7.1230218492607299E-4</v>
+      </c>
+      <c r="G691">
+        <v>8.9039333778530679E-6</v>
+      </c>
+      <c r="H691">
+        <v>-4.1710276317441482E-8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>8</v>
+      </c>
+      <c r="B692">
+        <v>3</v>
+      </c>
+      <c r="C692" t="s">
+        <v>26</v>
+      </c>
+      <c r="D692" t="s">
+        <v>10</v>
+      </c>
+      <c r="E692">
+        <v>1.834815205987709</v>
+      </c>
+      <c r="F692">
+        <v>-6.0978102978408701E-2</v>
+      </c>
+      <c r="G692">
+        <v>8.5933171159052204E-4</v>
+      </c>
+      <c r="H692">
+        <v>-4.3795192211481938E-6</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>8</v>
+      </c>
+      <c r="B693">
+        <v>3</v>
+      </c>
+      <c r="C693" t="s">
+        <v>26</v>
+      </c>
+      <c r="D693" t="s">
+        <v>11</v>
+      </c>
+      <c r="E693">
+        <v>13.904901244705149</v>
+      </c>
+      <c r="F693">
+        <v>-0.62152863405330672</v>
+      </c>
+      <c r="G693">
+        <v>1.004830344211247E-2</v>
+      </c>
+      <c r="H693">
+        <v>-5.0647769180643262E-5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>8</v>
+      </c>
+      <c r="B694">
+        <v>3</v>
+      </c>
+      <c r="C694" t="s">
+        <v>26</v>
+      </c>
+      <c r="D694" t="s">
+        <v>12</v>
+      </c>
+      <c r="E694">
+        <v>4.0921979451716144</v>
+      </c>
+      <c r="F694">
+        <v>0.33508476770553591</v>
+      </c>
+      <c r="G694">
+        <v>-8.6642092400476545E-3</v>
+      </c>
+      <c r="H694">
+        <v>6.1720147448653614E-5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>8</v>
+      </c>
+      <c r="B695">
+        <v>3</v>
+      </c>
+      <c r="C695" t="s">
+        <v>26</v>
+      </c>
+      <c r="D695" t="s">
+        <v>13</v>
+      </c>
+      <c r="E695">
+        <v>1.144102149612418</v>
+      </c>
+      <c r="F695">
+        <v>-4.6531892925621182E-2</v>
+      </c>
+      <c r="G695">
+        <v>7.2886542628463941E-4</v>
+      </c>
+      <c r="H695">
+        <v>-3.7672621016389741E-6</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>8</v>
+      </c>
+      <c r="B696">
+        <v>3</v>
+      </c>
+      <c r="C696" t="s">
+        <v>26</v>
+      </c>
+      <c r="D696" t="s">
+        <v>14</v>
+      </c>
+      <c r="E696">
+        <v>0.28645406970062098</v>
+      </c>
+      <c r="F696">
+        <v>2.345591933929762E-2</v>
+      </c>
+      <c r="G696">
+        <v>-6.0649435290710053E-4</v>
+      </c>
+      <c r="H696">
+        <v>4.320408491403771E-6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>8</v>
+      </c>
+      <c r="B697">
+        <v>3</v>
+      </c>
+      <c r="C697" t="s">
+        <v>26</v>
+      </c>
+      <c r="D697" t="s">
+        <v>15</v>
+      </c>
+      <c r="E697">
+        <v>4.4035560815492147E-2</v>
+      </c>
+      <c r="F697">
+        <v>-1.4634741889357149E-3</v>
+      </c>
+      <c r="G697">
+        <v>2.0623955572801051E-5</v>
+      </c>
+      <c r="H697">
+        <v>-1.051084284627671E-7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>8</v>
+      </c>
+      <c r="B698">
+        <v>3</v>
+      </c>
+      <c r="C698" t="s">
+        <v>26</v>
+      </c>
+      <c r="D698" t="s">
+        <v>16</v>
+      </c>
+      <c r="E698">
+        <v>1.790779582502793</v>
+      </c>
+      <c r="F698">
+        <v>-5.9514625402929323E-2</v>
+      </c>
+      <c r="G698">
+        <v>8.3870770107751088E-4</v>
+      </c>
+      <c r="H698">
+        <v>-4.2744105011149644E-6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>8</v>
+      </c>
+      <c r="B699">
+        <v>3</v>
+      </c>
+      <c r="C699" t="s">
+        <v>26</v>
+      </c>
+      <c r="D699" t="s">
+        <v>17</v>
+      </c>
+      <c r="E699">
+        <v>1.5694544769992921E-2</v>
+      </c>
+      <c r="F699">
+        <v>-5.3581613729036825E-4</v>
+      </c>
+      <c r="G699">
+        <v>1.166691253377609E-5</v>
+      </c>
+      <c r="H699">
+        <v>-8.0316857114334811E-8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>8</v>
+      </c>
+      <c r="B700">
+        <v>3</v>
+      </c>
+      <c r="C700" t="s">
+        <v>26</v>
+      </c>
+      <c r="D700" t="s">
+        <v>18</v>
+      </c>
+      <c r="E700">
+        <v>2.9000001959502658E-3</v>
+      </c>
+      <c r="F700">
+        <v>2.7752566143302941E-19</v>
+      </c>
+      <c r="G700">
+        <v>-4.7584031268343531E-21</v>
+      </c>
+      <c r="H700">
+        <v>2.4871299533134731E-23</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>8</v>
+      </c>
+      <c r="B701">
+        <v>3</v>
+      </c>
+      <c r="C701" t="s">
+        <v>26</v>
+      </c>
+      <c r="D701" t="s">
+        <v>19</v>
+      </c>
+      <c r="E701">
+        <v>3.0641410274488131E-2</v>
+      </c>
+      <c r="F701">
+        <v>-1.018334142355478E-3</v>
+      </c>
+      <c r="G701">
+        <v>1.43508366442236E-5</v>
+      </c>
+      <c r="H701">
+        <v>-7.3137954952768991E-8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>8</v>
+      </c>
+      <c r="B702">
+        <v>4</v>
+      </c>
+      <c r="C702" t="s">
+        <v>26</v>
+      </c>
+      <c r="D702" t="s">
+        <v>10</v>
+      </c>
+      <c r="E702">
+        <v>5.6607682345473101E-2</v>
+      </c>
+      <c r="F702">
+        <v>-1.292727659800229E-3</v>
+      </c>
+      <c r="G702">
+        <v>1.501066672896275E-5</v>
+      </c>
+      <c r="H702">
+        <v>-5.6967056878042308E-8</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>8</v>
+      </c>
+      <c r="B703">
+        <v>4</v>
+      </c>
+      <c r="C703" t="s">
+        <v>26</v>
+      </c>
+      <c r="D703" t="s">
+        <v>11</v>
+      </c>
+      <c r="E703">
+        <v>11.73656021272638</v>
+      </c>
+      <c r="F703">
+        <v>-0.60784061385506505</v>
+      </c>
+      <c r="G703">
+        <v>1.2192907548112581E-2</v>
+      </c>
+      <c r="H703">
+        <v>-7.3828165447446269E-5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>8</v>
+      </c>
+      <c r="B704">
+        <v>4</v>
+      </c>
+      <c r="C704" t="s">
+        <v>26</v>
+      </c>
+      <c r="D704" t="s">
+        <v>12</v>
+      </c>
+      <c r="E704">
+        <v>16.368112237575239</v>
+      </c>
+      <c r="F704">
+        <v>-0.23195288325653621</v>
+      </c>
+      <c r="G704">
+        <v>-1.443967388685598E-3</v>
+      </c>
+      <c r="H704">
+        <v>2.6304117156411452E-5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>8</v>
+      </c>
+      <c r="B705">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>26</v>
+      </c>
+      <c r="D705" t="s">
+        <v>13</v>
+      </c>
+      <c r="E705">
+        <v>0.15216389086465251</v>
+      </c>
+      <c r="F705">
+        <v>-5.8833435164075522E-3</v>
+      </c>
+      <c r="G705">
+        <v>1.1213704424244369E-4</v>
+      </c>
+      <c r="H705">
+        <v>-6.6408590561279301E-7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>8</v>
+      </c>
+      <c r="B706">
+        <v>4</v>
+      </c>
+      <c r="C706" t="s">
+        <v>26</v>
+      </c>
+      <c r="D706" t="s">
+        <v>14</v>
+      </c>
+      <c r="E706">
+        <v>1.1457679402076879</v>
+      </c>
+      <c r="F706">
+        <v>-1.62367054260684E-2</v>
+      </c>
+      <c r="G706">
+        <v>-1.0107766355223149E-4</v>
+      </c>
+      <c r="H706">
+        <v>1.8412879328076971E-6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>8</v>
+      </c>
+      <c r="B707">
+        <v>4</v>
+      </c>
+      <c r="C707" t="s">
+        <v>26</v>
+      </c>
+      <c r="D707" t="s">
+        <v>15</v>
+      </c>
+      <c r="E707">
+        <v>1.358584077530447E-3</v>
+      </c>
+      <c r="F707">
+        <v>-3.1025445448812061E-5</v>
+      </c>
+      <c r="G707">
+        <v>3.6025566448658821E-7</v>
+      </c>
+      <c r="H707">
+        <v>-1.3672074648316549E-9</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>8</v>
+      </c>
+      <c r="B708">
+        <v>4</v>
+      </c>
+      <c r="C708" t="s">
+        <v>26</v>
+      </c>
+      <c r="D708" t="s">
+        <v>16</v>
+      </c>
+      <c r="E708">
+        <v>5.5249091602118321E-2</v>
+      </c>
+      <c r="F708">
+        <v>-1.2617016999963719E-3</v>
+      </c>
+      <c r="G708">
+        <v>1.4650400222509649E-5</v>
+      </c>
+      <c r="H708">
+        <v>-5.5599781670305877E-8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>8</v>
+      </c>
+      <c r="B709">
+        <v>4</v>
+      </c>
+      <c r="C709" t="s">
+        <v>26</v>
+      </c>
+      <c r="D709" t="s">
+        <v>17</v>
+      </c>
+      <c r="E709">
+        <v>4.8720366346472643E-2</v>
+      </c>
+      <c r="F709">
+        <v>-1.9884237948163499E-3</v>
+      </c>
+      <c r="G709">
+        <v>4.2562452864440518E-5</v>
+      </c>
+      <c r="H709">
+        <v>-2.807411091766113E-7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>8</v>
+      </c>
+      <c r="B710">
+        <v>4</v>
+      </c>
+      <c r="C710" t="s">
+        <v>26</v>
+      </c>
+      <c r="D710" t="s">
+        <v>18</v>
+      </c>
+      <c r="E710">
+        <v>2.900000195950271E-3</v>
+      </c>
+      <c r="F710">
+        <v>6.0847810963630584E-20</v>
+      </c>
+      <c r="G710">
+        <v>-5.2344610206193333E-23</v>
+      </c>
+      <c r="H710">
+        <v>-1.3491344972540159E-23</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>8</v>
+      </c>
+      <c r="B711">
+        <v>4</v>
+      </c>
+      <c r="C711" t="s">
+        <v>26</v>
+      </c>
+      <c r="D711" t="s">
+        <v>19</v>
+      </c>
+      <c r="E711">
+        <v>9.4534828066504138E-4</v>
+      </c>
+      <c r="F711">
+        <v>-2.1588551423824571E-5</v>
+      </c>
+      <c r="G711">
+        <v>2.5067811920231861E-7</v>
+      </c>
+      <c r="H711">
+        <v>-9.5134973892186779E-10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>8</v>
+      </c>
+      <c r="B712">
+        <v>5</v>
+      </c>
+      <c r="C712" t="s">
+        <v>26</v>
+      </c>
+      <c r="D712" t="s">
+        <v>10</v>
+      </c>
+      <c r="E712">
+        <v>4.6913471775545473E-2</v>
+      </c>
+      <c r="F712">
+        <v>-7.2932910496502769E-4</v>
+      </c>
+      <c r="G712">
+        <v>4.9044640710801234E-6</v>
+      </c>
+      <c r="H712">
+        <v>-2.206933202186176E-10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>8</v>
+      </c>
+      <c r="B713">
+        <v>5</v>
+      </c>
+      <c r="C713" t="s">
+        <v>26</v>
+      </c>
+      <c r="D713" t="s">
+        <v>11</v>
+      </c>
+      <c r="E713">
+        <v>7.1034369154998842</v>
+      </c>
+      <c r="F713">
+        <v>-0.30468069845488632</v>
+      </c>
+      <c r="G713">
+        <v>5.8792668203261787E-3</v>
+      </c>
+      <c r="H713">
+        <v>-3.3664356444009808E-5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>8</v>
+      </c>
+      <c r="B714">
+        <v>5</v>
+      </c>
+      <c r="C714" t="s">
+        <v>26</v>
+      </c>
+      <c r="D714" t="s">
+        <v>12</v>
+      </c>
+      <c r="E714">
+        <v>20.09624526087666</v>
+      </c>
+      <c r="F714">
+        <v>-0.57970887258692072</v>
+      </c>
+      <c r="G714">
+        <v>5.522826630571495E-3</v>
+      </c>
+      <c r="H714">
+        <v>-1.5322127411398089E-5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>8</v>
+      </c>
+      <c r="B715">
+        <v>5</v>
+      </c>
+      <c r="C715" t="s">
+        <v>26</v>
+      </c>
+      <c r="D715" t="s">
+        <v>13</v>
+      </c>
+      <c r="E715">
+        <v>0.1002825436712875</v>
+      </c>
+      <c r="F715">
+        <v>-2.4160167152432318E-3</v>
+      </c>
+      <c r="G715">
+        <v>4.0529550492523742E-5</v>
+      </c>
+      <c r="H715">
+        <v>-2.0819992650276201E-7</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>8</v>
+      </c>
+      <c r="B716">
+        <v>5</v>
+      </c>
+      <c r="C716" t="s">
+        <v>26</v>
+      </c>
+      <c r="D716" t="s">
+        <v>14</v>
+      </c>
+      <c r="E716">
+        <v>1.406737289112548</v>
+      </c>
+      <c r="F716">
+        <v>-4.0579627726753227E-2</v>
+      </c>
+      <c r="G716">
+        <v>3.8659797815794242E-4</v>
+      </c>
+      <c r="H716">
+        <v>-1.07254954083197E-6</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>8</v>
+      </c>
+      <c r="B717">
+        <v>5</v>
+      </c>
+      <c r="C717" t="s">
+        <v>26</v>
+      </c>
+      <c r="D717" t="s">
+        <v>15</v>
+      </c>
+      <c r="E717">
+        <v>1.1259233760589141E-3</v>
+      </c>
+      <c r="F717">
+        <v>-1.7503903884335281E-5</v>
+      </c>
+      <c r="G717">
+        <v>1.1770727449592889E-7</v>
+      </c>
+      <c r="H717">
+        <v>-5.2976124151608638E-12</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>8</v>
+      </c>
+      <c r="B718">
+        <v>5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>26</v>
+      </c>
+      <c r="D718" t="s">
+        <v>16</v>
+      </c>
+      <c r="E718">
+        <v>4.5787540395211733E-2</v>
+      </c>
+      <c r="F718">
+        <v>-7.1182462006001246E-4</v>
+      </c>
+      <c r="G718">
+        <v>4.7867448342850063E-6</v>
+      </c>
+      <c r="H718">
+        <v>-2.153212304438946E-10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>8</v>
+      </c>
+      <c r="B719">
+        <v>5</v>
+      </c>
+      <c r="C719" t="s">
+        <v>26</v>
+      </c>
+      <c r="D719" t="s">
+        <v>17</v>
+      </c>
+      <c r="E719">
+        <v>0.15074598498514191</v>
+      </c>
+      <c r="F719">
+        <v>-6.5254412841557257E-3</v>
+      </c>
+      <c r="G719">
+        <v>1.3854669596676241E-4</v>
+      </c>
+      <c r="H719">
+        <v>-9.008605362512139E-7</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>8</v>
+      </c>
+      <c r="B720">
+        <v>5</v>
+      </c>
+      <c r="C720" t="s">
+        <v>26</v>
+      </c>
+      <c r="D720" t="s">
+        <v>18</v>
+      </c>
+      <c r="E720">
+        <v>1.0999999940395419E-2</v>
+      </c>
+      <c r="F720">
+        <v>-8.5536309737113093E-19</v>
+      </c>
+      <c r="G720">
+        <v>1.778804919963977E-20</v>
+      </c>
+      <c r="H720">
+        <v>-1.4270897325232091E-22</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>8</v>
+      </c>
+      <c r="B721">
+        <v>5</v>
+      </c>
+      <c r="C721" t="s">
+        <v>26</v>
+      </c>
+      <c r="D721" t="s">
+        <v>19</v>
+      </c>
+      <c r="E721">
+        <v>7.8345492602050154E-4</v>
+      </c>
+      <c r="F721">
+        <v>-1.2179794056738941E-5</v>
+      </c>
+      <c r="G721">
+        <v>8.1904521702902007E-8</v>
+      </c>
+      <c r="H721">
+        <v>-3.6854673795892907E-12</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>8</v>
+      </c>
+      <c r="B722">
+        <v>6</v>
+      </c>
+      <c r="C722" t="s">
+        <v>26</v>
+      </c>
+      <c r="D722" t="s">
+        <v>10</v>
+      </c>
+      <c r="E722">
+        <v>4.6086185443826068E-2</v>
+      </c>
+      <c r="F722">
+        <v>-8.3713097430392384E-4</v>
+      </c>
+      <c r="G722">
+        <v>6.5997078661823019E-6</v>
+      </c>
+      <c r="H722">
+        <v>-1.1482086092195219E-8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>8</v>
+      </c>
+      <c r="B723">
+        <v>6</v>
+      </c>
+      <c r="C723" t="s">
+        <v>26</v>
+      </c>
+      <c r="D723" t="s">
+        <v>11</v>
+      </c>
+      <c r="E723">
+        <v>0.86946168381294497</v>
+      </c>
+      <c r="F723">
+        <v>-3.4808136142909861E-2</v>
+      </c>
+      <c r="G723">
+        <v>6.145868675519557E-4</v>
+      </c>
+      <c r="H723">
+        <v>-3.5481612887586759E-6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>8</v>
+      </c>
+      <c r="B724">
+        <v>6</v>
+      </c>
+      <c r="C724" t="s">
+        <v>26</v>
+      </c>
+      <c r="D724" t="s">
+        <v>12</v>
+      </c>
+      <c r="E724">
+        <v>1.6989456570375669</v>
+      </c>
+      <c r="F724">
+        <v>-2.4542849012111519E-2</v>
+      </c>
+      <c r="G724">
+        <v>-1.4230024019191241E-4</v>
+      </c>
+      <c r="H724">
+        <v>2.759515897476683E-6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>8</v>
+      </c>
+      <c r="B725">
+        <v>6</v>
+      </c>
+      <c r="C725" t="s">
+        <v>26</v>
+      </c>
+      <c r="D725" t="s">
+        <v>13</v>
+      </c>
+      <c r="E725">
+        <v>7.3056107184219635E-2</v>
+      </c>
+      <c r="F725">
+        <v>-2.8691588798041932E-3</v>
+      </c>
+      <c r="G725">
+        <v>4.606351402277007E-5</v>
+      </c>
+      <c r="H725">
+        <v>-2.5139988478261529E-7</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>8</v>
+      </c>
+      <c r="B726">
+        <v>6</v>
+      </c>
+      <c r="C726" t="s">
+        <v>26</v>
+      </c>
+      <c r="D726" t="s">
+        <v>14</v>
+      </c>
+      <c r="E726">
+        <v>0.47570477536985012</v>
+      </c>
+      <c r="F726">
+        <v>-6.8719970157553843E-3</v>
+      </c>
+      <c r="G726">
+        <v>-3.9844083410000261E-5</v>
+      </c>
+      <c r="H726">
+        <v>7.7266456012248944E-7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>8</v>
+      </c>
+      <c r="B727">
+        <v>6</v>
+      </c>
+      <c r="C727" t="s">
+        <v>26</v>
+      </c>
+      <c r="D727" t="s">
+        <v>15</v>
+      </c>
+      <c r="E727">
+        <v>1.1060681787096161E-3</v>
+      </c>
+      <c r="F727">
+        <v>-2.0091127655617889E-5</v>
+      </c>
+      <c r="G727">
+        <v>1.583927194786874E-7</v>
+      </c>
+      <c r="H727">
+        <v>-2.7556863701117999E-10</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>8</v>
+      </c>
+      <c r="B728">
+        <v>6</v>
+      </c>
+      <c r="C728" t="s">
+        <v>26</v>
+      </c>
+      <c r="D728" t="s">
+        <v>16</v>
+      </c>
+      <c r="E728">
+        <v>4.4980117772916897E-2</v>
+      </c>
+      <c r="F728">
+        <v>-8.1703987916417861E-4</v>
+      </c>
+      <c r="G728">
+        <v>6.441315548724218E-6</v>
+      </c>
+      <c r="H728">
+        <v>-1.120651743591324E-8</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>8</v>
+      </c>
+      <c r="B729">
+        <v>6</v>
+      </c>
+      <c r="C729" t="s">
+        <v>26</v>
+      </c>
+      <c r="D729" t="s">
+        <v>17</v>
+      </c>
+      <c r="E729">
+        <v>0.12694744183172829</v>
+      </c>
+      <c r="F729">
+        <v>-4.7559734606877251E-3</v>
+      </c>
+      <c r="G729">
+        <v>1.028835420321132E-4</v>
+      </c>
+      <c r="H729">
+        <v>-6.9825576697077684E-7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>8</v>
+      </c>
+      <c r="B730">
+        <v>6</v>
+      </c>
+      <c r="C730" t="s">
+        <v>26</v>
+      </c>
+      <c r="D730" t="s">
+        <v>18</v>
+      </c>
+      <c r="E730">
+        <v>-3.1729105744651449E-3</v>
+      </c>
+      <c r="F730">
+        <v>1.2029664824473E-3</v>
+      </c>
+      <c r="G730">
+        <v>-2.508815197693183E-5</v>
+      </c>
+      <c r="H730">
+        <v>1.5624707264743131E-7</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>8</v>
+      </c>
+      <c r="B731">
+        <v>6</v>
+      </c>
+      <c r="C731" t="s">
+        <v>26</v>
+      </c>
+      <c r="D731" t="s">
+        <v>19</v>
+      </c>
+      <c r="E731">
+        <v>7.6963945400509786E-4</v>
+      </c>
+      <c r="F731">
+        <v>-1.398009744929108E-5</v>
+      </c>
+      <c r="G731">
+        <v>1.1021531885701771E-7</v>
+      </c>
+      <c r="H731">
+        <v>-1.917520408328627E-10</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>9</v>
+      </c>
+      <c r="B732">
+        <v>3</v>
+      </c>
+      <c r="C732" t="s">
+        <v>26</v>
+      </c>
+      <c r="D732" t="s">
+        <v>10</v>
+      </c>
+      <c r="E732">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F732">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G732">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H732">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>9</v>
+      </c>
+      <c r="B733">
+        <v>3</v>
+      </c>
+      <c r="C733" t="s">
+        <v>26</v>
+      </c>
+      <c r="D733" t="s">
+        <v>11</v>
+      </c>
+      <c r="E733">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F733">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G733">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H733">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734">
+        <v>3</v>
+      </c>
+      <c r="C734" t="s">
+        <v>26</v>
+      </c>
+      <c r="D734" t="s">
+        <v>12</v>
+      </c>
+      <c r="E734">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F734">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G734">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H734">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>9</v>
+      </c>
+      <c r="B735">
+        <v>3</v>
+      </c>
+      <c r="C735" t="s">
+        <v>26</v>
+      </c>
+      <c r="D735" t="s">
+        <v>13</v>
+      </c>
+      <c r="E735">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F735">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G735">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H735">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>9</v>
+      </c>
+      <c r="B736">
+        <v>3</v>
+      </c>
+      <c r="C736" t="s">
+        <v>26</v>
+      </c>
+      <c r="D736" t="s">
+        <v>14</v>
+      </c>
+      <c r="E736">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F736">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G736">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H736">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>9</v>
+      </c>
+      <c r="B737">
+        <v>3</v>
+      </c>
+      <c r="C737" t="s">
+        <v>26</v>
+      </c>
+      <c r="D737" t="s">
+        <v>15</v>
+      </c>
+      <c r="E737">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F737">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G737">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H737">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>9</v>
+      </c>
+      <c r="B738">
+        <v>3</v>
+      </c>
+      <c r="C738" t="s">
+        <v>26</v>
+      </c>
+      <c r="D738" t="s">
+        <v>16</v>
+      </c>
+      <c r="E738">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F738">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G738">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H738">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>9</v>
+      </c>
+      <c r="B739">
+        <v>3</v>
+      </c>
+      <c r="C739" t="s">
+        <v>26</v>
+      </c>
+      <c r="D739" t="s">
+        <v>17</v>
+      </c>
+      <c r="E739">
+        <v>0</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>9</v>
+      </c>
+      <c r="B740">
+        <v>3</v>
+      </c>
+      <c r="C740" t="s">
+        <v>26</v>
+      </c>
+      <c r="D740" t="s">
+        <v>18</v>
+      </c>
+      <c r="E740">
+        <v>0</v>
+      </c>
+      <c r="F740">
+        <v>0</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>9</v>
+      </c>
+      <c r="B741">
+        <v>3</v>
+      </c>
+      <c r="C741" t="s">
+        <v>26</v>
+      </c>
+      <c r="D741" t="s">
+        <v>19</v>
+      </c>
+      <c r="E741">
+        <v>0</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>9</v>
+      </c>
+      <c r="B742">
+        <v>4</v>
+      </c>
+      <c r="C742" t="s">
+        <v>26</v>
+      </c>
+      <c r="D742" t="s">
+        <v>10</v>
+      </c>
+      <c r="E742">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F742">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G742">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H742">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>9</v>
+      </c>
+      <c r="B743">
+        <v>4</v>
+      </c>
+      <c r="C743" t="s">
+        <v>26</v>
+      </c>
+      <c r="D743" t="s">
+        <v>11</v>
+      </c>
+      <c r="E743">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F743">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G743">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H743">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>9</v>
+      </c>
+      <c r="B744">
+        <v>4</v>
+      </c>
+      <c r="C744" t="s">
+        <v>26</v>
+      </c>
+      <c r="D744" t="s">
+        <v>12</v>
+      </c>
+      <c r="E744">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F744">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G744">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H744">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>9</v>
+      </c>
+      <c r="B745">
+        <v>4</v>
+      </c>
+      <c r="C745" t="s">
+        <v>26</v>
+      </c>
+      <c r="D745" t="s">
+        <v>13</v>
+      </c>
+      <c r="E745">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F745">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G745">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H745">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>9</v>
+      </c>
+      <c r="B746">
+        <v>4</v>
+      </c>
+      <c r="C746" t="s">
+        <v>26</v>
+      </c>
+      <c r="D746" t="s">
+        <v>14</v>
+      </c>
+      <c r="E746">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F746">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G746">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H746">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>9</v>
+      </c>
+      <c r="B747">
+        <v>4</v>
+      </c>
+      <c r="C747" t="s">
+        <v>26</v>
+      </c>
+      <c r="D747" t="s">
+        <v>15</v>
+      </c>
+      <c r="E747">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F747">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G747">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H747">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>9</v>
+      </c>
+      <c r="B748">
+        <v>4</v>
+      </c>
+      <c r="C748" t="s">
+        <v>26</v>
+      </c>
+      <c r="D748" t="s">
+        <v>16</v>
+      </c>
+      <c r="E748">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F748">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G748">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H748">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>9</v>
+      </c>
+      <c r="B749">
+        <v>4</v>
+      </c>
+      <c r="C749" t="s">
+        <v>26</v>
+      </c>
+      <c r="D749" t="s">
+        <v>17</v>
+      </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
+      <c r="F749">
+        <v>0</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>9</v>
+      </c>
+      <c r="B750">
+        <v>4</v>
+      </c>
+      <c r="C750" t="s">
+        <v>26</v>
+      </c>
+      <c r="D750" t="s">
+        <v>18</v>
+      </c>
+      <c r="E750">
+        <v>0</v>
+      </c>
+      <c r="F750">
+        <v>0</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>9</v>
+      </c>
+      <c r="B751">
+        <v>4</v>
+      </c>
+      <c r="C751" t="s">
+        <v>26</v>
+      </c>
+      <c r="D751" t="s">
+        <v>19</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+      <c r="F751">
+        <v>0</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>9</v>
+      </c>
+      <c r="B752">
+        <v>5</v>
+      </c>
+      <c r="C752" t="s">
+        <v>26</v>
+      </c>
+      <c r="D752" t="s">
+        <v>10</v>
+      </c>
+      <c r="E752">
+        <v>-0.18998505184248879</v>
+      </c>
+      <c r="F752">
+        <v>3.3362557683648021E-2</v>
+      </c>
+      <c r="G752">
+        <v>-6.7283771367418574E-4</v>
+      </c>
+      <c r="H752">
+        <v>4.1232634955252581E-6</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>9</v>
+      </c>
+      <c r="B753">
+        <v>5</v>
+      </c>
+      <c r="C753" t="s">
+        <v>26</v>
+      </c>
+      <c r="D753" t="s">
+        <v>11</v>
+      </c>
+      <c r="E753">
+        <v>-0.40266042011765929</v>
+      </c>
+      <c r="F753">
+        <v>7.0709623241742681E-2</v>
+      </c>
+      <c r="G753">
+        <v>-1.426032757465056E-3</v>
+      </c>
+      <c r="H753">
+        <v>8.7389702292917021E-6</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>9</v>
+      </c>
+      <c r="B754">
+        <v>5</v>
+      </c>
+      <c r="C754" t="s">
+        <v>26</v>
+      </c>
+      <c r="D754" t="s">
+        <v>12</v>
+      </c>
+      <c r="E754">
+        <v>-0.73226776600008481</v>
+      </c>
+      <c r="F754">
+        <v>0.12859076103823469</v>
+      </c>
+      <c r="G754">
+        <v>-2.5933478173373482E-3</v>
+      </c>
+      <c r="H754">
+        <v>1.589247519950483E-5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>9</v>
+      </c>
+      <c r="B755">
+        <v>5</v>
+      </c>
+      <c r="C755" t="s">
+        <v>26</v>
+      </c>
+      <c r="D755" t="s">
+        <v>13</v>
+      </c>
+      <c r="E755">
+        <v>-3.141847954679229E-3</v>
+      </c>
+      <c r="F755">
+        <v>5.5172796431763346E-4</v>
+      </c>
+      <c r="G755">
+        <v>-1.112694606680735E-5</v>
+      </c>
+      <c r="H755">
+        <v>6.8187810194758683E-8</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>9</v>
+      </c>
+      <c r="B756">
+        <v>5</v>
+      </c>
+      <c r="C756" t="s">
+        <v>26</v>
+      </c>
+      <c r="D756" t="s">
+        <v>14</v>
+      </c>
+      <c r="E756">
+        <v>-0.18306694150002251</v>
+      </c>
+      <c r="F756">
+        <v>3.2147690259558673E-2</v>
+      </c>
+      <c r="G756">
+        <v>-6.4833695433433596E-4</v>
+      </c>
+      <c r="H756">
+        <v>3.9731187998761991E-6</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>9</v>
+      </c>
+      <c r="B757">
+        <v>5</v>
+      </c>
+      <c r="C757" t="s">
+        <v>26</v>
+      </c>
+      <c r="D757" t="s">
+        <v>15</v>
+      </c>
+      <c r="E757">
+        <v>-0.17478612500275409</v>
+      </c>
+      <c r="F757">
+        <v>3.069354566008748E-2</v>
+      </c>
+      <c r="G757">
+        <v>-6.1901056039959112E-4</v>
+      </c>
+      <c r="H757">
+        <v>3.7934016476820429E-6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>9</v>
+      </c>
+      <c r="B758">
+        <v>5</v>
+      </c>
+      <c r="C758" t="s">
+        <v>26</v>
+      </c>
+      <c r="D758" t="s">
+        <v>16</v>
+      </c>
+      <c r="E758">
+        <v>-1.5198800709893431E-2</v>
+      </c>
+      <c r="F758">
+        <v>2.6690044280275882E-3</v>
+      </c>
+      <c r="G758">
+        <v>-5.3827014459744178E-5</v>
+      </c>
+      <c r="H758">
+        <v>3.2986106852228981E-7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>9</v>
+      </c>
+      <c r="B759">
+        <v>5</v>
+      </c>
+      <c r="C759" t="s">
+        <v>26</v>
+      </c>
+      <c r="D759" t="s">
+        <v>17</v>
+      </c>
+      <c r="E759">
+        <v>0</v>
+      </c>
+      <c r="F759">
+        <v>0</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>9</v>
+      </c>
+      <c r="B760">
+        <v>5</v>
+      </c>
+      <c r="C760" t="s">
+        <v>26</v>
+      </c>
+      <c r="D760" t="s">
+        <v>18</v>
+      </c>
+      <c r="E760">
+        <v>0</v>
+      </c>
+      <c r="F760">
+        <v>0</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>9</v>
+      </c>
+      <c r="B761">
+        <v>5</v>
+      </c>
+      <c r="C761" t="s">
+        <v>26</v>
+      </c>
+      <c r="D761" t="s">
+        <v>19</v>
+      </c>
+      <c r="E761">
+        <v>0</v>
+      </c>
+      <c r="F761">
+        <v>0</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>9</v>
+      </c>
+      <c r="B762">
+        <v>6</v>
+      </c>
+      <c r="C762" t="s">
+        <v>26</v>
+      </c>
+      <c r="D762" t="s">
+        <v>10</v>
+      </c>
+      <c r="E762">
+        <v>-0.1172569057503413</v>
+      </c>
+      <c r="F762">
+        <v>1.7064550778342642E-2</v>
+      </c>
+      <c r="G762">
+        <v>-3.358007931779243E-4</v>
+      </c>
+      <c r="H762">
+        <v>2.0283317355797798E-6</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>9</v>
+      </c>
+      <c r="B763">
+        <v>6</v>
+      </c>
+      <c r="C763" t="s">
+        <v>26</v>
+      </c>
+      <c r="D763" t="s">
+        <v>11</v>
+      </c>
+      <c r="E763">
+        <v>-0.44252186114991388</v>
+      </c>
+      <c r="F763">
+        <v>6.4400776674280652E-2</v>
+      </c>
+      <c r="G763">
+        <v>-1.2672957048539539E-3</v>
+      </c>
+      <c r="H763">
+        <v>7.6548244114928941E-6</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>9</v>
+      </c>
+      <c r="B764">
+        <v>6</v>
+      </c>
+      <c r="C764" t="s">
+        <v>26</v>
+      </c>
+      <c r="D764" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764">
+        <v>-0.29376197534772508</v>
+      </c>
+      <c r="F764">
+        <v>4.2751551528455591E-2</v>
+      </c>
+      <c r="G764">
+        <v>-8.4127645267759394E-4</v>
+      </c>
+      <c r="H764">
+        <v>5.0815475946237212E-6</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>9</v>
+      </c>
+      <c r="B765">
+        <v>6</v>
+      </c>
+      <c r="C765" t="s">
+        <v>26</v>
+      </c>
+      <c r="D765" t="s">
+        <v>13</v>
+      </c>
+      <c r="E765">
+        <v>-3.9606323319677957E-3</v>
+      </c>
+      <c r="F765">
+        <v>5.7639610591237963E-4</v>
+      </c>
+      <c r="G765">
+        <v>-1.1342476410270089E-5</v>
+      </c>
+      <c r="H765">
+        <v>6.8511762874992627E-8</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>9</v>
+      </c>
+      <c r="B766">
+        <v>6</v>
+      </c>
+      <c r="C766" t="s">
+        <v>26</v>
+      </c>
+      <c r="D766" t="s">
+        <v>14</v>
+      </c>
+      <c r="E766">
+        <v>-7.3440493836929868E-2</v>
+      </c>
+      <c r="F766">
+        <v>1.068788788211383E-2</v>
+      </c>
+      <c r="G766">
+        <v>-2.1031911316939729E-4</v>
+      </c>
+      <c r="H766">
+        <v>1.270386898655924E-6</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>9</v>
+      </c>
+      <c r="B767">
+        <v>6</v>
+      </c>
+      <c r="C767" t="s">
+        <v>26</v>
+      </c>
+      <c r="D767" t="s">
+        <v>15</v>
+      </c>
+      <c r="E767">
+        <v>-0.107876363987236</v>
+      </c>
+      <c r="F767">
+        <v>1.569938745922287E-2</v>
+      </c>
+      <c r="G767">
+        <v>-3.0893674058614319E-4</v>
+      </c>
+      <c r="H767">
+        <v>1.8660652436810141E-6</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>9</v>
+      </c>
+      <c r="B768">
+        <v>6</v>
+      </c>
+      <c r="C768" t="s">
+        <v>26</v>
+      </c>
+      <c r="D768" t="s">
+        <v>16</v>
+      </c>
+      <c r="E768">
+        <v>-9.3805462393594559E-3</v>
+      </c>
+      <c r="F768">
+        <v>1.3651636746324961E-3</v>
+      </c>
+      <c r="G768">
+        <v>-2.6864056023179689E-5</v>
+      </c>
+      <c r="H768">
+        <v>1.6226649387487251E-7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>9</v>
+      </c>
+      <c r="B769">
+        <v>6</v>
+      </c>
+      <c r="C769" t="s">
+        <v>26</v>
+      </c>
+      <c r="D769" t="s">
+        <v>17</v>
+      </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>9</v>
+      </c>
+      <c r="B770">
+        <v>6</v>
+      </c>
+      <c r="C770" t="s">
+        <v>26</v>
+      </c>
+      <c r="D770" t="s">
+        <v>18</v>
+      </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
+      <c r="F770">
+        <v>0</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>9</v>
+      </c>
+      <c r="B771">
+        <v>6</v>
+      </c>
+      <c r="C771" t="s">
+        <v>26</v>
+      </c>
+      <c r="D771" t="s">
+        <v>19</v>
+      </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
+      <c r="F771">
+        <v>0</v>
+      </c>
+      <c r="G771">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H661" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H661"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>